--- a/patients_and_inspections.xlsx
+++ b/patients_and_inspections.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teppei/Dropbox/鉄兵/CODEforOSAKA/2019/20200312_COVID19/20200401/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC52D9-57C4-EC4C-A643-4236D8B2C4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="16500" yWindow="460" windowWidth="16500" windowHeight="19160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,58 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="68">
   <si>
-    <t>（1）入退院の状況</t>
+    <t>検査件数</t>
   </si>
   <si>
-    <t>行ラベル</t>
+    <t>陽性人数</t>
   </si>
   <si>
-    <t>データの個数 / 性別</t>
+    <t>陽性累計</t>
+  </si>
+  <si>
+    <t>現在陽性者数</t>
   </si>
   <si>
     <t>退院</t>
   </si>
   <si>
-    <t>入院中</t>
+    <t>退院済累計</t>
   </si>
   <si>
-    <t>入院調整中</t>
+    <t>退院判明</t>
   </si>
   <si>
-    <t>死亡退院</t>
-  </si>
-  <si>
-    <t>総計</t>
-  </si>
-  <si>
-    <t>（2）症状</t>
-  </si>
-  <si>
-    <t>データの個数 / 年代</t>
-  </si>
-  <si>
-    <t>軽症</t>
-  </si>
-  <si>
-    <t>重症</t>
-  </si>
-  <si>
-    <t>無症状</t>
+    <t>退院判明累計</t>
   </si>
   <si>
     <t>死亡</t>
   </si>
   <si>
-    <t>―</t>
-  </si>
-  <si>
-    <t>退院</t>
-    <rPh sb="0" eb="2">
-      <t>タイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>計</t>
   </si>
   <si>
     <t>番号</t>
@@ -110,7 +89,16 @@
     <t>大阪市</t>
   </si>
   <si>
+    <t>―</t>
+  </si>
+  <si>
     <t>男性</t>
+  </si>
+  <si>
+    <t>軽症</t>
+  </si>
+  <si>
+    <t>入院中</t>
   </si>
   <si>
     <t>未就学児</t>
@@ -132,6 +120,9 @@
   </si>
   <si>
     <t>松原市</t>
+  </si>
+  <si>
+    <t>死亡退院</t>
   </si>
   <si>
     <t>大東市</t>
@@ -158,7 +149,16 @@
     <t>不明</t>
   </si>
   <si>
+    <t>無症状</t>
+  </si>
+  <si>
     <t>八尾市</t>
+  </si>
+  <si>
+    <t>重症</t>
+  </si>
+  <si>
+    <t>入院調整中</t>
   </si>
   <si>
     <t>貝塚市</t>
@@ -182,9 +182,6 @@
     <t>岸和田市</t>
   </si>
   <si>
-    <t>1月0日</t>
-  </si>
-  <si>
     <t>泉大津市</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
     <t>田尻町</t>
   </si>
   <si>
+    <t>就学児</t>
+  </si>
+  <si>
     <t>寝屋川市</t>
   </si>
   <si>
@@ -206,42 +206,49 @@
     <t>-</t>
   </si>
   <si>
+    <t>交野市</t>
+  </si>
+  <si>
+    <t>（1）入退院の状況</t>
+  </si>
+  <si>
+    <t>行ラベル</t>
+  </si>
+  <si>
+    <t>データの個数 / 性別</t>
+  </si>
+  <si>
+    <t>総計</t>
+  </si>
+  <si>
+    <t>（2）症状</t>
+  </si>
+  <si>
+    <t>データの個数 / 年代</t>
+  </si>
+  <si>
+    <t>退院</t>
+    <rPh sb="0" eb="2">
+      <t>タイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>時点</t>
     <rPh sb="0" eb="2">
       <t>ジテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>検査件数</t>
-  </si>
-  <si>
-    <t>陽性人数</t>
-  </si>
-  <si>
-    <t>陽性累計</t>
-  </si>
-  <si>
-    <t>現在陽性者数</t>
-  </si>
-  <si>
-    <t>退院済累計</t>
-  </si>
-  <si>
-    <t>退院判明</t>
-  </si>
-  <si>
-    <t>退院判明累計</t>
-  </si>
-  <si>
-    <t>計</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,12 +265,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,15 +293,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -572,5797 +591,6528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B18">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K215" sqref="K215"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="2">
-        <v>43920</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5">
+        <v>43921</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>43859</v>
       </c>
       <c r="C3">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>43888</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
         <v>43881</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>43889</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43880</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43889</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>43880</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>43892</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
         <v>43883</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>43892</v>
       </c>
       <c r="C8">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
         <v>43885</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>43893</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
         <v>43884</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>43893</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
         <v>43887</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>43894</v>
       </c>
       <c r="C11">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>43894</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
         <v>43884</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>43894</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>43894</v>
       </c>
       <c r="C14">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2">
         <v>43881</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>43894</v>
       </c>
       <c r="C15">
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2">
         <v>43886</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>43894</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
         <v>43894</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>43894</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2">
         <v>43884</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>43894</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
         <v>43889</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>43894</v>
       </c>
       <c r="C19">
         <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43878</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1">
-        <v>43878</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>43895</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>43896</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2">
         <v>43884</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>43896</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2">
         <v>43884</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>43896</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="1">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2">
         <v>43887</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>43896</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2">
         <v>43883</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>43896</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="1">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2">
         <v>43893</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>43896</v>
       </c>
       <c r="C26">
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>43896</v>
       </c>
       <c r="C27">
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>43896</v>
       </c>
       <c r="C28">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1">
+        <v>33</v>
+      </c>
+      <c r="F28" s="2">
         <v>43886</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>43896</v>
       </c>
       <c r="C29">
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="1">
+        <v>34</v>
+      </c>
+      <c r="F29" s="2">
         <v>43884</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>43896</v>
       </c>
       <c r="C30">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="1">
+        <v>34</v>
+      </c>
+      <c r="F30" s="2">
         <v>43887</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>43896</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>43896</v>
       </c>
       <c r="C32">
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>43896</v>
       </c>
       <c r="C33">
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>43897</v>
       </c>
       <c r="C34">
         <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1">
+        <v>28</v>
+      </c>
+      <c r="F34" s="2">
         <v>43882</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>43897</v>
       </c>
       <c r="C35">
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>43897</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>43897</v>
       </c>
       <c r="C37">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>43897</v>
       </c>
       <c r="C38">
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="1">
+        <v>33</v>
+      </c>
+      <c r="F38" s="2">
         <v>43886</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>43897</v>
       </c>
       <c r="C39">
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>43897</v>
       </c>
       <c r="C40">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="1">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2">
         <v>43886</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>43897</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="1">
+        <v>37</v>
+      </c>
+      <c r="F41" s="2">
         <v>43883</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>43897</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="1">
+        <v>28</v>
+      </c>
+      <c r="F42" s="2">
         <v>43883</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>43897</v>
       </c>
       <c r="C43">
         <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="1">
+        <v>38</v>
+      </c>
+      <c r="F43" s="2">
         <v>43890</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>43898</v>
       </c>
       <c r="C44">
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="1">
+        <v>19</v>
+      </c>
+      <c r="F44" s="2">
         <v>43884</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>43898</v>
       </c>
       <c r="C45">
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="1">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2">
         <v>43890</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>43898</v>
       </c>
       <c r="C46">
         <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="1">
+        <v>19</v>
+      </c>
+      <c r="F46" s="2">
         <v>43886</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>43898</v>
       </c>
       <c r="C47">
         <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>43898</v>
       </c>
       <c r="C48">
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="1">
+        <v>38</v>
+      </c>
+      <c r="F48" s="2">
         <v>43886</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>43898</v>
       </c>
       <c r="C49">
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>43898</v>
       </c>
       <c r="C50">
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="1">
+        <v>19</v>
+      </c>
+      <c r="F50" s="2">
         <v>43881</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>43898</v>
       </c>
       <c r="C51">
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>43898</v>
       </c>
       <c r="C52">
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="1">
+        <v>19</v>
+      </c>
+      <c r="F52" s="2">
         <v>43891</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>43898</v>
       </c>
       <c r="C53">
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="1">
+        <v>19</v>
+      </c>
+      <c r="F53" s="2">
         <v>43891</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>43898</v>
       </c>
       <c r="C54">
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>43898</v>
       </c>
       <c r="C55">
         <v>30</v>
       </c>
       <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>43891</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>43898</v>
       </c>
       <c r="C56">
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="1">
+        <v>38</v>
+      </c>
+      <c r="F56" s="2">
         <v>43890</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>43898</v>
       </c>
       <c r="C57">
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="1">
+        <v>41</v>
+      </c>
+      <c r="F57" s="2">
         <v>43896</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>43900</v>
       </c>
       <c r="C58">
         <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="1">
+        <v>19</v>
+      </c>
+      <c r="F58" s="2">
         <v>43895</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>43900</v>
       </c>
       <c r="C59">
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="1">
+        <v>19</v>
+      </c>
+      <c r="F59" s="2">
         <v>43895</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>43900</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>43900</v>
       </c>
       <c r="C61">
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="1">
+        <v>19</v>
+      </c>
+      <c r="F61" s="2">
         <v>43893</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>43900</v>
       </c>
       <c r="C62">
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="1">
+        <v>19</v>
+      </c>
+      <c r="F62" s="2">
         <v>43895</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>43900</v>
       </c>
       <c r="C63">
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="1">
+        <v>19</v>
+      </c>
+      <c r="F63" s="2">
         <v>43895</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>43900</v>
       </c>
       <c r="C64">
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="1">
+        <v>19</v>
+      </c>
+      <c r="F64" s="2">
         <v>43892</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="3">
         <v>43900</v>
       </c>
       <c r="C65">
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="1">
+        <v>19</v>
+      </c>
+      <c r="F65" s="2">
         <v>43893</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="3">
         <v>43900</v>
       </c>
       <c r="C66">
         <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="3">
         <v>43900</v>
       </c>
       <c r="C67">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="1">
+        <v>28</v>
+      </c>
+      <c r="F67" s="2">
         <v>43897</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>43900</v>
       </c>
       <c r="C68">
         <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
-      </c>
-      <c r="F68" s="1">
+        <v>38</v>
+      </c>
+      <c r="F68" s="2">
         <v>43896</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>43900</v>
       </c>
       <c r="C69">
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
-      </c>
-      <c r="F69" s="1">
+        <v>41</v>
+      </c>
+      <c r="F69" s="2">
         <v>43889</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>43900</v>
       </c>
       <c r="C70">
         <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="1">
+        <v>44</v>
+      </c>
+      <c r="F70" s="2">
         <v>43888</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>43900</v>
       </c>
       <c r="C71">
         <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="1">
+        <v>25</v>
+      </c>
+      <c r="F71" s="2">
         <v>43893</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>43900</v>
       </c>
       <c r="C72">
         <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
-      </c>
-      <c r="F72" s="1">
+        <v>34</v>
+      </c>
+      <c r="F72" s="2">
         <v>43894</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>43900</v>
       </c>
       <c r="C73">
         <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" s="1">
+        <v>41</v>
+      </c>
+      <c r="F73" s="2">
         <v>43894</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>43900</v>
       </c>
       <c r="C74">
         <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
-      </c>
-      <c r="F74" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>43900</v>
       </c>
       <c r="C75">
         <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="1">
+        <v>36</v>
+      </c>
+      <c r="F75" s="2">
         <v>43891</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>43901</v>
       </c>
       <c r="C76">
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="1">
+        <v>19</v>
+      </c>
+      <c r="F76" s="2">
         <v>43891</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>43901</v>
       </c>
       <c r="C77">
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77" s="1">
+        <v>38</v>
+      </c>
+      <c r="F77" s="2">
         <v>43894</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>43901</v>
       </c>
       <c r="C78">
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>43901</v>
       </c>
       <c r="C79">
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" s="1">
+        <v>38</v>
+      </c>
+      <c r="F79" s="2">
         <v>43897</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>43901</v>
       </c>
       <c r="C80">
         <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
-      </c>
-      <c r="F80" s="1">
+        <v>46</v>
+      </c>
+      <c r="F80" s="2">
         <v>43892</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="3">
         <v>43901</v>
       </c>
       <c r="C81">
         <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="1">
+        <v>29</v>
+      </c>
+      <c r="F81" s="2">
         <v>43893</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="3">
         <v>43901</v>
       </c>
       <c r="C82">
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>43902</v>
       </c>
       <c r="C83">
         <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="1">
+        <v>19</v>
+      </c>
+      <c r="F83" s="2">
         <v>43893</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="3">
         <v>43902</v>
       </c>
       <c r="C84">
         <v>30</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="1">
+        <v>19</v>
+      </c>
+      <c r="F84" s="2">
         <v>43896</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="3">
         <v>43902</v>
       </c>
       <c r="C85">
         <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="1">
+        <v>19</v>
+      </c>
+      <c r="F85" s="2">
         <v>43901</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="3">
         <v>43902</v>
       </c>
       <c r="C86">
         <v>50</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="1">
+        <v>45</v>
+      </c>
+      <c r="F86" s="2">
         <v>43895</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="3">
         <v>43902</v>
       </c>
       <c r="C87">
         <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" s="1">
+        <v>41</v>
+      </c>
+      <c r="F87" s="2">
         <v>43889</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="3">
         <v>43902</v>
       </c>
       <c r="C88">
         <v>70</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
-      </c>
-      <c r="F88" s="1">
+        <v>41</v>
+      </c>
+      <c r="F88" s="2">
         <v>43894</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="3">
         <v>43902</v>
       </c>
       <c r="C89">
         <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F89" s="1">
+        <v>47</v>
+      </c>
+      <c r="F89" s="2">
         <v>43895</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>43902</v>
       </c>
       <c r="C90">
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
-      </c>
-      <c r="F90" s="1">
+        <v>47</v>
+      </c>
+      <c r="F90" s="2">
         <v>43898</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="3">
         <v>43902</v>
       </c>
       <c r="C91">
         <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
-      </c>
-      <c r="F91" s="1">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2">
         <v>43890</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="3">
         <v>43903</v>
       </c>
       <c r="C92">
         <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="1">
+        <v>38</v>
+      </c>
+      <c r="F92" s="2">
         <v>43894</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="3">
         <v>43903</v>
       </c>
       <c r="C93">
         <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93" s="1">
+        <v>46</v>
+      </c>
+      <c r="F93" s="2">
         <v>43900</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="3">
         <v>43903</v>
       </c>
       <c r="C94">
         <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="3">
         <v>43904</v>
       </c>
       <c r="C95">
         <v>50</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="1">
+        <v>19</v>
+      </c>
+      <c r="F95" s="2">
         <v>43901</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="3">
         <v>43904</v>
       </c>
       <c r="C96">
         <v>80</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="1">
+        <v>19</v>
+      </c>
+      <c r="F96" s="2">
         <v>43898</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="3">
         <v>43904</v>
       </c>
       <c r="C97">
         <v>50</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="1">
+        <v>19</v>
+      </c>
+      <c r="F97" s="2">
         <v>43899</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="3">
         <v>43904</v>
       </c>
       <c r="C98">
         <v>50</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" s="1">
+        <v>32</v>
+      </c>
+      <c r="F98" s="2">
         <v>43903</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>43904</v>
       </c>
       <c r="C99">
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" s="1">
+        <v>36</v>
+      </c>
+      <c r="F99" s="2">
         <v>43891</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="3">
         <v>43904</v>
       </c>
       <c r="C100">
         <v>60</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" s="1">
+        <v>49</v>
+      </c>
+      <c r="F100" s="2">
         <v>43896</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="3">
         <v>43904</v>
       </c>
       <c r="C101">
         <v>30</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" s="1">
+        <v>37</v>
+      </c>
+      <c r="F101" s="2">
         <v>43902</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="3">
         <v>43904</v>
       </c>
       <c r="C102">
         <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="3">
         <v>43904</v>
       </c>
       <c r="C103">
         <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
-      </c>
-      <c r="F103" s="1">
+        <v>29</v>
+      </c>
+      <c r="F103" s="2">
         <v>43894</v>
       </c>
       <c r="G103" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>43904</v>
       </c>
       <c r="C104">
         <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="1">
+        <v>29</v>
+      </c>
+      <c r="F104" s="2">
         <v>43899</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="3">
         <v>43905</v>
       </c>
       <c r="C105">
         <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" s="1">
+        <v>33</v>
+      </c>
+      <c r="F105" s="2">
         <v>43904</v>
       </c>
-      <c r="G105" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="3">
         <v>43905</v>
       </c>
       <c r="C106">
         <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="1">
+        <v>19</v>
+      </c>
+      <c r="F106" s="2">
         <v>43902</v>
       </c>
       <c r="G106" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="3">
         <v>43905</v>
       </c>
       <c r="C107">
         <v>30</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="3">
         <v>43905</v>
       </c>
       <c r="C108">
         <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="1">
+        <v>19</v>
+      </c>
+      <c r="F108" s="2">
         <v>43903</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="3">
         <v>43906</v>
       </c>
       <c r="C109">
         <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" s="1">
+        <v>32</v>
+      </c>
+      <c r="F109" s="2">
         <v>43904</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="3">
         <v>43906</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" s="1">
+        <v>32</v>
+      </c>
+      <c r="F110" s="2">
         <v>43901</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="3">
         <v>43907</v>
       </c>
       <c r="C111">
         <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="3">
         <v>43907</v>
       </c>
       <c r="C112">
         <v>40</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="1">
+        <v>19</v>
+      </c>
+      <c r="F112" s="2">
         <v>43899</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="3">
         <v>43907</v>
       </c>
       <c r="C113">
         <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="3">
         <v>43907</v>
       </c>
       <c r="C114">
         <v>60</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
-      </c>
-      <c r="F114" s="1">
+        <v>49</v>
+      </c>
+      <c r="F114" s="2">
         <v>43905</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="3">
         <v>43908</v>
       </c>
       <c r="C115">
         <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
-      </c>
-      <c r="F115" s="1">
+        <v>46</v>
+      </c>
+      <c r="F115" s="2">
         <v>43903</v>
       </c>
       <c r="G115" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="3">
         <v>43908</v>
       </c>
       <c r="C116">
         <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
-      </c>
-      <c r="F116" s="1">
+        <v>46</v>
+      </c>
+      <c r="F116" s="2">
         <v>43896</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>43908</v>
       </c>
       <c r="C117">
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
-      </c>
-      <c r="F117" s="1">
+        <v>49</v>
+      </c>
+      <c r="F117" s="2">
         <v>43897</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="3">
         <v>43908</v>
       </c>
       <c r="C118">
         <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" s="1">
+        <v>49</v>
+      </c>
+      <c r="F118" s="2">
         <v>43902</v>
       </c>
       <c r="G118" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <v>43908</v>
       </c>
       <c r="C119">
         <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
-      </c>
-      <c r="F119" s="1">
+        <v>34</v>
+      </c>
+      <c r="F119" s="2">
         <v>43898</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="3">
         <v>43909</v>
       </c>
       <c r="C120">
         <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="1">
+        <v>19</v>
+      </c>
+      <c r="F120" s="2">
         <v>43898</v>
       </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="3">
         <v>43909</v>
       </c>
       <c r="C121">
         <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121" s="1">
+        <v>29</v>
+      </c>
+      <c r="F121" s="2">
         <v>43898</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="3">
         <v>43910</v>
       </c>
       <c r="C122">
         <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="1">
+        <v>19</v>
+      </c>
+      <c r="F122" s="2">
         <v>43895</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="3">
         <v>43910</v>
       </c>
       <c r="C123">
         <v>60</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="1">
+        <v>19</v>
+      </c>
+      <c r="F123" s="2">
         <v>43899</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="3">
         <v>43910</v>
       </c>
       <c r="C124">
         <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
-      </c>
-      <c r="F124" s="1">
+        <v>29</v>
+      </c>
+      <c r="F124" s="2">
         <v>43905</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="3">
         <v>43910</v>
       </c>
       <c r="C125">
         <v>60</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
-      </c>
-      <c r="F125" s="1">
+        <v>29</v>
+      </c>
+      <c r="F125" s="2">
         <v>43906</v>
       </c>
       <c r="G125" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="3">
         <v>43911</v>
       </c>
       <c r="C126">
         <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
-      </c>
-      <c r="F126" s="1">
+        <v>33</v>
+      </c>
+      <c r="F126" s="2">
         <v>43895</v>
       </c>
       <c r="G126" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="3">
         <v>43911</v>
       </c>
       <c r="C127">
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
-      </c>
-      <c r="F127" s="1">
+        <v>50</v>
+      </c>
+      <c r="F127" s="2">
         <v>43898</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="3">
         <v>43912</v>
       </c>
       <c r="C128">
         <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="1">
+        <v>19</v>
+      </c>
+      <c r="F128" s="2">
         <v>43906</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="3">
         <v>43912</v>
       </c>
       <c r="C129">
         <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
-      </c>
-      <c r="F129" s="1">
+        <v>45</v>
+      </c>
+      <c r="F129" s="2">
         <v>43909</v>
       </c>
       <c r="G129" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="3">
         <v>43912</v>
       </c>
       <c r="C130">
         <v>40</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E130" t="s">
-        <v>28</v>
-      </c>
-      <c r="F130" s="1">
+        <v>25</v>
+      </c>
+      <c r="F130" s="2">
         <v>43909</v>
       </c>
       <c r="G130" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="3">
         <v>43912</v>
       </c>
       <c r="C131">
         <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
-      </c>
-      <c r="F131" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="3">
         <v>43912</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="3">
         <v>43912</v>
       </c>
       <c r="C133">
         <v>70</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
-      </c>
-      <c r="F133" s="1">
+        <v>41</v>
+      </c>
+      <c r="F133" s="2">
         <v>43904</v>
       </c>
       <c r="G133" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="3">
         <v>43913</v>
       </c>
       <c r="C134">
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="1">
+        <v>19</v>
+      </c>
+      <c r="F134" s="2">
         <v>43911</v>
       </c>
       <c r="G134" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="3">
         <v>43913</v>
       </c>
       <c r="C135">
         <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E135" t="s">
         <v>51</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="2">
         <v>43900</v>
       </c>
       <c r="G135" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="3">
         <v>43913</v>
       </c>
       <c r="C136">
         <v>40</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E136" t="s">
-        <v>49</v>
-      </c>
-      <c r="F136" s="1">
+        <v>50</v>
+      </c>
+      <c r="F136" s="2">
         <v>43897</v>
       </c>
       <c r="G136" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="3">
         <v>43914</v>
       </c>
       <c r="C137">
         <v>50</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="1">
+        <v>19</v>
+      </c>
+      <c r="F137" s="2">
         <v>43908</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="3">
         <v>43914</v>
       </c>
       <c r="C138">
         <v>40</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="1">
+        <v>19</v>
+      </c>
+      <c r="F138" s="2">
         <v>43910</v>
       </c>
       <c r="G138" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="3">
         <v>43914</v>
       </c>
       <c r="C139">
         <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="1">
+        <v>19</v>
+      </c>
+      <c r="F139" s="2">
         <v>43909</v>
       </c>
       <c r="G139" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="3">
         <v>43914</v>
       </c>
       <c r="C140">
         <v>60</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
-      </c>
-      <c r="F140" s="1">
+        <v>38</v>
+      </c>
+      <c r="F140" s="2">
         <v>43906</v>
       </c>
       <c r="G140" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="3">
         <v>43914</v>
       </c>
       <c r="C141">
         <v>50</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
-      </c>
-      <c r="F141" s="1">
+        <v>33</v>
+      </c>
+      <c r="F141" s="2">
         <v>43904</v>
       </c>
       <c r="G141" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="3">
         <v>43914</v>
       </c>
       <c r="C142">
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
-      </c>
-      <c r="F142" s="1">
+        <v>27</v>
+      </c>
+      <c r="F142" s="2">
         <v>43909</v>
       </c>
       <c r="G142" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="3">
         <v>43914</v>
       </c>
       <c r="C143">
         <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
-      </c>
-      <c r="F143" s="1">
+        <v>29</v>
+      </c>
+      <c r="F143" s="2">
         <v>43907</v>
       </c>
       <c r="G143" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="3">
         <v>43914</v>
       </c>
       <c r="C144">
         <v>70</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
-      </c>
-      <c r="F144" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="3">
         <v>43915</v>
       </c>
       <c r="C145">
         <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
-      </c>
-      <c r="F145" s="1">
+        <v>19</v>
+      </c>
+      <c r="F145" s="2">
         <v>43905</v>
       </c>
       <c r="G145" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="3">
         <v>43915</v>
       </c>
       <c r="C146">
         <v>50</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
-      </c>
-      <c r="F146" s="1">
+        <v>33</v>
+      </c>
+      <c r="F146" s="2">
         <v>43912</v>
       </c>
       <c r="G146" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>145</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="3">
         <v>43915</v>
       </c>
       <c r="C147">
         <v>50</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
-      </c>
-      <c r="F147" s="1">
+        <v>28</v>
+      </c>
+      <c r="F147" s="2">
         <v>43909</v>
       </c>
       <c r="G147" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>146</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="3">
         <v>43915</v>
       </c>
       <c r="C148">
         <v>80</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
-      </c>
-      <c r="F148" s="1">
+        <v>27</v>
+      </c>
+      <c r="F148" s="2">
         <v>43906</v>
       </c>
       <c r="G148" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="3">
         <v>43915</v>
       </c>
       <c r="C149">
         <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E149" t="s">
         <v>52</v>
       </c>
-      <c r="F149" t="s">
-        <v>47</v>
+      <c r="F149" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G149" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="3">
         <v>43915</v>
       </c>
       <c r="C150">
         <v>70</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E150" t="s">
         <v>52</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="2">
         <v>43913</v>
       </c>
       <c r="G150" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="3">
         <v>43915</v>
       </c>
       <c r="C151">
         <v>30</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E151" t="s">
-        <v>44</v>
-      </c>
-      <c r="F151" s="1">
+        <v>45</v>
+      </c>
+      <c r="F151" s="2">
         <v>43914</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="3">
         <v>43916</v>
       </c>
       <c r="C152">
         <v>50</v>
       </c>
       <c r="D152" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
-      </c>
-      <c r="F152" s="1">
+        <v>19</v>
+      </c>
+      <c r="F152" s="2">
         <v>43910</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>151</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="3">
         <v>43916</v>
       </c>
       <c r="C153">
         <v>40</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153" s="1">
+        <v>19</v>
+      </c>
+      <c r="F153" s="2">
         <v>43910</v>
       </c>
       <c r="G153" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>152</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="3">
         <v>43916</v>
       </c>
       <c r="C154">
         <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" s="1">
+        <v>19</v>
+      </c>
+      <c r="F154" s="2">
         <v>43909</v>
       </c>
       <c r="G154" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>153</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="3">
         <v>43916</v>
       </c>
       <c r="C155">
         <v>40</v>
       </c>
       <c r="D155" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
-      </c>
-      <c r="F155" s="1">
+        <v>34</v>
+      </c>
+      <c r="F155" s="2">
         <v>43909</v>
       </c>
       <c r="G155" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>154</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="3">
         <v>43916</v>
       </c>
       <c r="C156">
         <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156" s="1">
+        <v>38</v>
+      </c>
+      <c r="F156" s="2">
         <v>43912</v>
       </c>
       <c r="G156" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>155</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="3">
         <v>43916</v>
       </c>
       <c r="C157">
         <v>70</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
-      </c>
-      <c r="F157" s="1">
+        <v>29</v>
+      </c>
+      <c r="F157" s="2">
         <v>43911</v>
       </c>
       <c r="G157" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>156</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="3">
         <v>43916</v>
       </c>
       <c r="C158">
         <v>50</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
-      </c>
-      <c r="F158" s="1">
+        <v>37</v>
+      </c>
+      <c r="F158" s="2">
         <v>43911</v>
       </c>
       <c r="G158" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>157</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="3">
         <v>43917</v>
       </c>
       <c r="C159">
         <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>44</v>
-      </c>
-      <c r="F159" s="1">
+        <v>45</v>
+      </c>
+      <c r="F159" s="2">
         <v>43908</v>
       </c>
       <c r="G159" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>158</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="3">
         <v>43917</v>
       </c>
       <c r="C160">
         <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
-      </c>
-      <c r="F160" s="1">
+        <v>19</v>
+      </c>
+      <c r="F160" s="2">
         <v>43911</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>159</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="3">
         <v>43917</v>
       </c>
       <c r="C161">
         <v>30</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>25</v>
-      </c>
-      <c r="F161" s="1">
+        <v>19</v>
+      </c>
+      <c r="F161" s="2">
         <v>43912</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>160</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="3">
         <v>43917</v>
       </c>
       <c r="C162">
         <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" s="1">
+        <v>19</v>
+      </c>
+      <c r="F162" s="2">
         <v>43910</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>161</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="3">
         <v>43917</v>
       </c>
       <c r="C163">
         <v>40</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>25</v>
-      </c>
-      <c r="F163" s="1">
+        <v>19</v>
+      </c>
+      <c r="F163" s="2">
         <v>43914</v>
       </c>
       <c r="G163" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>162</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="3">
         <v>43917</v>
       </c>
       <c r="C164">
         <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>25</v>
-      </c>
-      <c r="F164" s="1">
+        <v>19</v>
+      </c>
+      <c r="F164" s="2">
         <v>43914</v>
       </c>
       <c r="G164" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>163</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="3">
         <v>43917</v>
       </c>
       <c r="C165">
         <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>25</v>
-      </c>
-      <c r="F165" s="1">
+        <v>19</v>
+      </c>
+      <c r="F165" s="2">
         <v>43912</v>
       </c>
       <c r="G165" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>164</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="3">
         <v>43917</v>
       </c>
       <c r="C166">
         <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
-      </c>
-      <c r="F166" s="1">
+        <v>19</v>
+      </c>
+      <c r="F166" s="2">
         <v>43912</v>
       </c>
       <c r="G166" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H166" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>165</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="3">
         <v>43917</v>
       </c>
       <c r="C167">
         <v>40</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>25</v>
-      </c>
-      <c r="F167" s="1">
+        <v>19</v>
+      </c>
+      <c r="F167" s="2">
         <v>43912</v>
       </c>
       <c r="G167" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>166</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="3">
         <v>43917</v>
       </c>
       <c r="C168">
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168" s="1">
+        <v>19</v>
+      </c>
+      <c r="F168" s="2">
         <v>43909</v>
       </c>
       <c r="G168" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>167</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="3">
         <v>43917</v>
       </c>
       <c r="C169">
         <v>50</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E169" t="s">
-        <v>25</v>
-      </c>
-      <c r="F169" s="1">
+        <v>19</v>
+      </c>
+      <c r="F169" s="2">
         <v>43910</v>
       </c>
       <c r="G169" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H169" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>168</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="3">
         <v>43917</v>
       </c>
       <c r="C170">
         <v>70</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>25</v>
-      </c>
-      <c r="F170" s="1">
+        <v>19</v>
+      </c>
+      <c r="F170" s="2">
         <v>43911</v>
       </c>
       <c r="G170" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H170" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>169</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="3">
         <v>43917</v>
       </c>
       <c r="C171">
         <v>30</v>
       </c>
       <c r="D171" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
-      </c>
-      <c r="F171" s="1">
+        <v>34</v>
+      </c>
+      <c r="F171" s="2">
         <v>43905</v>
       </c>
       <c r="G171" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>170</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="3">
         <v>43917</v>
       </c>
       <c r="C172">
         <v>30</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
-      </c>
-      <c r="F172" s="1">
+        <v>36</v>
+      </c>
+      <c r="F172" s="2">
         <v>43912</v>
       </c>
       <c r="G172" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>171</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="3">
         <v>43917</v>
       </c>
       <c r="C173">
         <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="1">
+        <v>19</v>
+      </c>
+      <c r="F173" s="2">
         <v>43913</v>
       </c>
       <c r="G173" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>172</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="3">
         <v>43917</v>
       </c>
       <c r="C174">
         <v>50</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E174" t="s">
         <v>53</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="2">
         <v>43909</v>
       </c>
       <c r="G174" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>173</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="3">
         <v>43917</v>
       </c>
       <c r="C175">
         <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E175" t="s">
         <v>54</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175" s="2">
         <v>43915</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>174</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="3">
         <v>43917</v>
       </c>
       <c r="C176">
         <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
-      </c>
-      <c r="F176" s="1">
+        <v>32</v>
+      </c>
+      <c r="F176" s="2">
         <v>43912</v>
       </c>
       <c r="G176" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H176" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>175</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="3">
         <v>43917</v>
       </c>
       <c r="C177">
         <v>80</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
-      </c>
-      <c r="F177" s="1">
+        <v>33</v>
+      </c>
+      <c r="F177" s="2">
         <v>43902</v>
       </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H177" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>176</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="3">
         <v>43917</v>
       </c>
       <c r="C178">
         <v>50</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
-      </c>
-      <c r="F178" s="1">
+        <v>29</v>
+      </c>
+      <c r="F178" s="2">
         <v>43907</v>
       </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H178" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>177</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="3">
         <v>43918</v>
       </c>
       <c r="C179">
         <v>40</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
-      </c>
-      <c r="F179" s="1">
+        <v>19</v>
+      </c>
+      <c r="F179" s="2">
         <v>43910</v>
       </c>
       <c r="G179" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H179" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>178</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="3">
         <v>43918</v>
       </c>
       <c r="C180">
         <v>20</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>25</v>
-      </c>
-      <c r="F180" s="1">
+        <v>19</v>
+      </c>
+      <c r="F180" s="2">
         <v>43912</v>
       </c>
       <c r="G180" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H180" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>179</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="3">
         <v>43918</v>
       </c>
       <c r="C181">
         <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E181" t="s">
-        <v>25</v>
-      </c>
-      <c r="F181" s="1">
+        <v>19</v>
+      </c>
+      <c r="F181" s="2">
         <v>43913</v>
       </c>
       <c r="G181" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>180</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="3">
         <v>43918</v>
       </c>
       <c r="C182">
         <v>70</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>44</v>
-      </c>
-      <c r="F182" s="1">
+        <v>45</v>
+      </c>
+      <c r="F182" s="2">
         <v>43914</v>
       </c>
       <c r="G182" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H182" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>181</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="3">
         <v>43918</v>
       </c>
       <c r="C183">
         <v>20</v>
       </c>
       <c r="D183" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E183" t="s">
-        <v>25</v>
-      </c>
-      <c r="F183" s="1">
+        <v>19</v>
+      </c>
+      <c r="F183" s="2">
         <v>43913</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>182</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="3">
         <v>43918</v>
       </c>
       <c r="C184">
         <v>20</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
-      </c>
-      <c r="F184" s="1">
+        <v>19</v>
+      </c>
+      <c r="F184" s="2">
         <v>43913</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>183</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="3">
         <v>43918</v>
       </c>
       <c r="C185">
         <v>30</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>25</v>
-      </c>
-      <c r="F185" s="1">
+        <v>19</v>
+      </c>
+      <c r="F185" s="2">
         <v>43910</v>
       </c>
       <c r="G185" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H185" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>184</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="3">
         <v>43918</v>
       </c>
       <c r="C186">
         <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
-      </c>
-      <c r="F186" s="1">
+        <v>19</v>
+      </c>
+      <c r="F186" s="2">
         <v>43899</v>
       </c>
       <c r="G186" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>185</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>43918</v>
       </c>
       <c r="C187">
         <v>50</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E187" t="s">
-        <v>25</v>
-      </c>
-      <c r="F187" s="1">
+        <v>19</v>
+      </c>
+      <c r="F187" s="2">
         <v>43912</v>
       </c>
       <c r="G187" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H187" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>186</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="3">
         <v>43918</v>
       </c>
       <c r="C188">
         <v>30</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>31</v>
-      </c>
-      <c r="F188" s="1">
+        <v>28</v>
+      </c>
+      <c r="F188" s="2">
         <v>43901</v>
       </c>
       <c r="G188" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>187</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="3">
         <v>43918</v>
       </c>
       <c r="C189">
         <v>40</v>
       </c>
       <c r="D189" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
-      </c>
-      <c r="F189" s="1">
+        <v>38</v>
+      </c>
+      <c r="F189" s="2">
         <v>43910</v>
       </c>
       <c r="G189" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>188</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="3">
         <v>43918</v>
       </c>
       <c r="C190">
         <v>30</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
-      </c>
-      <c r="F190" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G190" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H190" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>189</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="3">
         <v>43918</v>
       </c>
       <c r="C191">
         <v>20</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E191" t="s">
-        <v>29</v>
-      </c>
-      <c r="F191" s="1">
+        <v>26</v>
+      </c>
+      <c r="F191" s="2">
         <v>43914</v>
       </c>
       <c r="G191" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>190</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="3">
         <v>43918</v>
       </c>
       <c r="C192">
         <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
-      </c>
-      <c r="F192" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>191</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="3">
         <v>43918</v>
       </c>
       <c r="C193">
         <v>40</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E193" t="s">
-        <v>49</v>
-      </c>
-      <c r="F193" s="1">
+        <v>50</v>
+      </c>
+      <c r="F193" s="2">
         <v>43907</v>
       </c>
       <c r="G193" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H193" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>192</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="3">
         <v>43919</v>
       </c>
       <c r="C194">
         <v>40</v>
       </c>
       <c r="D194" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E194" t="s">
-        <v>25</v>
-      </c>
-      <c r="F194" s="1">
+        <v>19</v>
+      </c>
+      <c r="F194" s="2">
         <v>43918</v>
       </c>
       <c r="G194" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>193</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="3">
         <v>43919</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
-      </c>
-      <c r="F195" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>194</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="3">
         <v>43919</v>
       </c>
       <c r="C196">
         <v>70</v>
       </c>
       <c r="D196" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E196" t="s">
-        <v>25</v>
-      </c>
-      <c r="F196" s="1">
+        <v>19</v>
+      </c>
+      <c r="F196" s="2">
         <v>43904</v>
       </c>
       <c r="G196" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H196" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>195</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="3">
         <v>43919</v>
       </c>
       <c r="C197">
         <v>60</v>
       </c>
       <c r="D197" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
-      </c>
-      <c r="F197" s="1">
+        <v>19</v>
+      </c>
+      <c r="F197" s="2">
         <v>43916</v>
       </c>
       <c r="G197" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H197" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>196</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="3">
         <v>43919</v>
       </c>
       <c r="C198">
         <v>30</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E198" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198" s="1">
+        <v>19</v>
+      </c>
+      <c r="F198" s="2">
         <v>43913</v>
       </c>
       <c r="G198" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H198" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>197</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="3">
         <v>43919</v>
       </c>
       <c r="C199">
         <v>60</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E199" t="s">
-        <v>35</v>
-      </c>
-      <c r="F199" s="1">
+        <v>33</v>
+      </c>
+      <c r="F199" s="2">
         <v>43917</v>
       </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H199" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>198</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="3">
         <v>43919</v>
       </c>
       <c r="C200">
         <v>50</v>
       </c>
       <c r="D200" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E200" t="s">
-        <v>35</v>
-      </c>
-      <c r="F200" s="1">
+        <v>33</v>
+      </c>
+      <c r="F200" s="2">
         <v>43909</v>
       </c>
       <c r="G200" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H200" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>199</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="3">
         <v>43919</v>
       </c>
       <c r="C201">
         <v>30</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E201" t="s">
-        <v>35</v>
-      </c>
-      <c r="F201" s="1">
+        <v>33</v>
+      </c>
+      <c r="F201" s="2">
         <v>43912</v>
       </c>
       <c r="G201" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>200</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="3">
         <v>43919</v>
       </c>
       <c r="C202">
         <v>40</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
-      </c>
-      <c r="F202" s="1">
+        <v>29</v>
+      </c>
+      <c r="F202" s="2">
         <v>43913</v>
       </c>
       <c r="G202" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>201</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="3">
         <v>43919</v>
       </c>
       <c r="C203">
         <v>20</v>
       </c>
       <c r="D203" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E203" t="s">
-        <v>32</v>
-      </c>
-      <c r="F203" s="1">
+        <v>29</v>
+      </c>
+      <c r="F203" s="2">
         <v>43908</v>
       </c>
       <c r="G203" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>202</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="3">
         <v>43919</v>
       </c>
       <c r="C204">
         <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E204" t="s">
-        <v>38</v>
-      </c>
-      <c r="F204" s="1">
+        <v>36</v>
+      </c>
+      <c r="F204" s="2">
         <v>43917</v>
       </c>
       <c r="G204" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H204" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>203</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="3">
         <v>43919</v>
       </c>
       <c r="C205">
         <v>60</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E205" t="s">
-        <v>39</v>
-      </c>
-      <c r="F205" s="1">
+        <v>37</v>
+      </c>
+      <c r="F205" s="2">
         <v>43913</v>
       </c>
       <c r="G205" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H205" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>204</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="3">
         <v>43919</v>
       </c>
       <c r="C206">
         <v>60</v>
       </c>
       <c r="D206" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E206" t="s">
-        <v>39</v>
-      </c>
-      <c r="F206" s="1">
+        <v>37</v>
+      </c>
+      <c r="F206" s="2">
         <v>43918</v>
       </c>
       <c r="G206" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>205</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="3">
         <v>43919</v>
       </c>
       <c r="C207">
         <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E207" t="s">
-        <v>55</v>
-      </c>
-      <c r="F207" s="1">
+        <v>56</v>
+      </c>
+      <c r="F207" s="2">
         <v>43911</v>
       </c>
       <c r="G207" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H207" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>206</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="3">
         <v>43919</v>
       </c>
       <c r="C208">
         <v>20</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E208" t="s">
-        <v>56</v>
-      </c>
-      <c r="F208" s="1">
+        <v>57</v>
+      </c>
+      <c r="F208" s="2">
         <v>43917</v>
       </c>
       <c r="G208" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>207</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="3">
         <v>43919</v>
       </c>
       <c r="C209">
         <v>50</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E209" t="s">
         <v>51</v>
       </c>
-      <c r="F209" s="1">
+      <c r="F209" s="2">
         <v>43911</v>
       </c>
       <c r="G209" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>208</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="3">
         <v>43919</v>
       </c>
       <c r="C210">
         <v>70</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
-      </c>
-      <c r="F210" s="1">
+        <v>50</v>
+      </c>
+      <c r="F210" s="2">
         <v>43914</v>
       </c>
       <c r="G210" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H210" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>209</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="3">
         <v>43920</v>
       </c>
       <c r="C211">
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E211" t="s">
-        <v>25</v>
-      </c>
-      <c r="F211" s="1">
+        <v>19</v>
+      </c>
+      <c r="F211" s="2">
         <v>43918</v>
       </c>
       <c r="G211" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H211" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>210</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="3">
         <v>43920</v>
       </c>
       <c r="C212">
         <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E212" t="s">
-        <v>25</v>
-      </c>
-      <c r="F212" s="1">
+        <v>19</v>
+      </c>
+      <c r="F212" s="2">
         <v>43915</v>
       </c>
       <c r="G212" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H212" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>211</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="3">
         <v>43920</v>
       </c>
       <c r="C213">
         <v>40</v>
       </c>
       <c r="D213" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E213" t="s">
-        <v>25</v>
-      </c>
-      <c r="F213" s="1">
+        <v>19</v>
+      </c>
+      <c r="F213" s="2">
         <v>43917</v>
       </c>
       <c r="G213" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H213" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>212</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="3">
         <v>43920</v>
       </c>
       <c r="C214">
         <v>50</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E214" t="s">
-        <v>25</v>
-      </c>
-      <c r="F214" s="1">
+        <v>19</v>
+      </c>
+      <c r="F214" s="2">
         <v>43917</v>
       </c>
       <c r="G214" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H214" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>213</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="3">
         <v>43920</v>
       </c>
       <c r="C215">
         <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E215" t="s">
-        <v>31</v>
-      </c>
-      <c r="F215" s="1">
+        <v>28</v>
+      </c>
+      <c r="F215" s="2">
         <v>43910</v>
       </c>
       <c r="G215" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>214</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="3">
         <v>43920</v>
       </c>
       <c r="C216">
         <v>70</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E216" t="s">
-        <v>30</v>
-      </c>
-      <c r="F216" s="1">
+        <v>27</v>
+      </c>
+      <c r="F216" s="2">
         <v>43901</v>
       </c>
       <c r="G216" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>215</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="3">
         <v>43920</v>
       </c>
       <c r="C217">
         <v>20</v>
       </c>
       <c r="D217" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E217" t="s">
-        <v>39</v>
-      </c>
-      <c r="F217" s="1">
+        <v>37</v>
+      </c>
+      <c r="F217" s="2">
         <v>43917</v>
       </c>
       <c r="G217" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H217" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>216</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="3">
         <v>43920</v>
       </c>
       <c r="C218">
         <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E218" t="s">
-        <v>49</v>
-      </c>
-      <c r="F218" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H218" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C219">
+        <v>40</v>
+      </c>
+      <c r="D219" t="s">
+        <v>21</v>
+      </c>
+      <c r="E219" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219" s="2">
+        <v>43915</v>
+      </c>
+      <c r="G219" t="s">
+        <v>22</v>
+      </c>
+      <c r="H219" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C220">
+        <v>80</v>
+      </c>
+      <c r="D220" t="s">
+        <v>21</v>
+      </c>
+      <c r="E220" t="s">
+        <v>32</v>
+      </c>
+      <c r="F220" s="2">
+        <v>43907</v>
+      </c>
+      <c r="G220" t="s">
+        <v>22</v>
+      </c>
+      <c r="H220" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C221">
+        <v>20</v>
+      </c>
+      <c r="D221" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" t="s">
+        <v>32</v>
+      </c>
+      <c r="F221" s="2">
+        <v>43909</v>
+      </c>
+      <c r="G221" t="s">
+        <v>22</v>
+      </c>
+      <c r="H221" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C222">
+        <v>40</v>
+      </c>
+      <c r="D222" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" t="s">
+        <v>32</v>
+      </c>
+      <c r="F222" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G222" t="s">
+        <v>22</v>
+      </c>
+      <c r="H222" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C223">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>21</v>
+      </c>
+      <c r="E223" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="2">
+        <v>43919</v>
+      </c>
+      <c r="G223" t="s">
+        <v>22</v>
+      </c>
+      <c r="H223" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C224">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" s="2">
+        <v>43919</v>
+      </c>
+      <c r="G224" t="s">
+        <v>22</v>
+      </c>
+      <c r="H224" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C225">
+        <v>20</v>
+      </c>
+      <c r="D225" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="2">
+        <v>43911</v>
+      </c>
+      <c r="G225" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C226">
+        <v>80</v>
+      </c>
+      <c r="D226" t="s">
+        <v>18</v>
+      </c>
+      <c r="E226" t="s">
+        <v>32</v>
+      </c>
+      <c r="F226" s="2">
+        <v>43906</v>
+      </c>
+      <c r="G226" t="s">
+        <v>22</v>
+      </c>
+      <c r="H226" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C227">
+        <v>40</v>
+      </c>
+      <c r="D227" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" t="s">
+        <v>19</v>
+      </c>
+      <c r="F227" s="2">
+        <v>43911</v>
+      </c>
+      <c r="G227" t="s">
+        <v>22</v>
+      </c>
+      <c r="H227" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C228">
+        <v>50</v>
+      </c>
+      <c r="D228" t="s">
+        <v>21</v>
+      </c>
+      <c r="E228" t="s">
+        <v>19</v>
+      </c>
+      <c r="F228" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G228" t="s">
+        <v>22</v>
+      </c>
+      <c r="H228" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C229">
+        <v>40</v>
+      </c>
+      <c r="D229" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229" s="2">
+        <v>43908</v>
+      </c>
+      <c r="G229" t="s">
+        <v>22</v>
+      </c>
+      <c r="H229" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C230">
+        <v>20</v>
+      </c>
+      <c r="D230" t="s">
+        <v>18</v>
+      </c>
+      <c r="E230" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="2">
+        <v>43915</v>
+      </c>
+      <c r="G230" t="s">
+        <v>22</v>
+      </c>
+      <c r="H230" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C231">
+        <v>40</v>
+      </c>
+      <c r="D231" t="s">
+        <v>18</v>
+      </c>
+      <c r="E231" t="s">
+        <v>19</v>
+      </c>
+      <c r="F231" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G231" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C232">
+        <v>60</v>
+      </c>
+      <c r="D232" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232" t="s">
+        <v>19</v>
+      </c>
+      <c r="F232" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G232" t="s">
+        <v>22</v>
+      </c>
+      <c r="H232" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C233">
+        <v>50</v>
+      </c>
+      <c r="D233" t="s">
+        <v>21</v>
+      </c>
+      <c r="E233" t="s">
+        <v>19</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G233" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C234">
+        <v>50</v>
+      </c>
+      <c r="D234" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" t="s">
+        <v>19</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G234" t="s">
+        <v>22</v>
+      </c>
+      <c r="H234" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C235">
+        <v>30</v>
+      </c>
+      <c r="D235" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235" t="s">
+        <v>33</v>
+      </c>
+      <c r="F235" s="2">
+        <v>43906</v>
+      </c>
+      <c r="G235" t="s">
+        <v>22</v>
+      </c>
+      <c r="H235" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C236">
+        <v>50</v>
+      </c>
+      <c r="D236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" t="s">
+        <v>33</v>
+      </c>
+      <c r="F236" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G236" t="s">
+        <v>22</v>
+      </c>
+      <c r="H236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+      <c r="D237" t="s">
+        <v>21</v>
+      </c>
+      <c r="E237" t="s">
+        <v>19</v>
+      </c>
+      <c r="F237" s="2">
+        <v>43916</v>
+      </c>
+      <c r="G237" t="s">
+        <v>22</v>
+      </c>
+      <c r="H237" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C238">
+        <v>20</v>
+      </c>
+      <c r="D238" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" s="2">
+        <v>43916</v>
+      </c>
+      <c r="G238" t="s">
+        <v>22</v>
+      </c>
+      <c r="H238" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C239">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>21</v>
+      </c>
+      <c r="E239" t="s">
+        <v>56</v>
+      </c>
+      <c r="F239" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G239" t="s">
+        <v>22</v>
+      </c>
+      <c r="H239" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C240">
+        <v>40</v>
+      </c>
+      <c r="D240" t="s">
+        <v>18</v>
+      </c>
+      <c r="E240" t="s">
+        <v>27</v>
+      </c>
+      <c r="F240" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G240" t="s">
+        <v>22</v>
+      </c>
+      <c r="H240" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C241">
+        <v>40</v>
+      </c>
+      <c r="D241" t="s">
+        <v>21</v>
+      </c>
+      <c r="E241" t="s">
+        <v>46</v>
+      </c>
+      <c r="F241" s="2">
+        <v>43917</v>
+      </c>
+      <c r="G241" t="s">
+        <v>22</v>
+      </c>
+      <c r="H241" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C242">
+        <v>20</v>
+      </c>
+      <c r="D242" t="s">
+        <v>18</v>
+      </c>
+      <c r="E242" t="s">
+        <v>29</v>
+      </c>
+      <c r="F242" s="2">
+        <v>43916</v>
+      </c>
+      <c r="G242" t="s">
+        <v>22</v>
+      </c>
+      <c r="H242" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C243">
+        <v>20</v>
+      </c>
+      <c r="D243" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" t="s">
+        <v>37</v>
+      </c>
+      <c r="F243" s="2">
+        <v>43912</v>
+      </c>
+      <c r="G243" t="s">
+        <v>22</v>
+      </c>
+      <c r="H243" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C244">
+        <v>20</v>
+      </c>
+      <c r="D244" t="s">
+        <v>21</v>
+      </c>
+      <c r="E244" t="s">
+        <v>37</v>
+      </c>
+      <c r="F244" s="2">
+        <v>43916</v>
+      </c>
+      <c r="G244" t="s">
+        <v>22</v>
+      </c>
+      <c r="H244" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C245">
+        <v>30</v>
+      </c>
+      <c r="D245" t="s">
+        <v>18</v>
+      </c>
+      <c r="E245" t="s">
+        <v>32</v>
+      </c>
+      <c r="F245" s="2">
+        <v>43915</v>
+      </c>
+      <c r="G245" t="s">
+        <v>22</v>
+      </c>
+      <c r="H245" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="3">
+        <v>43921</v>
+      </c>
+      <c r="C246">
+        <v>60</v>
+      </c>
+      <c r="D246" t="s">
+        <v>21</v>
+      </c>
+      <c r="E246" t="s">
+        <v>59</v>
+      </c>
+      <c r="F246" s="2">
+        <v>43920</v>
+      </c>
+      <c r="G246" t="s">
+        <v>22</v>
+      </c>
+      <c r="H246" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6372,57 +7122,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="3">
-        <v>43920</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5">
+        <v>43921</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
         <v>43856</v>
       </c>
       <c r="B3">
@@ -6453,8 +7204,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
         <v>43857</v>
       </c>
       <c r="B4">
@@ -6485,8 +7236,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
         <v>43858</v>
       </c>
       <c r="B5">
@@ -6517,8 +7268,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
         <v>43859</v>
       </c>
       <c r="B6">
@@ -6549,8 +7300,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
         <v>43860</v>
       </c>
       <c r="B7">
@@ -6581,8 +7332,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
         <v>43861</v>
       </c>
       <c r="B8">
@@ -6613,8 +7364,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
         <v>43862</v>
       </c>
       <c r="B9">
@@ -6645,8 +7396,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
         <v>43863</v>
       </c>
       <c r="B10">
@@ -6677,8 +7428,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
         <v>43864</v>
       </c>
       <c r="B11">
@@ -6709,8 +7460,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
         <v>43865</v>
       </c>
       <c r="B12">
@@ -6741,8 +7492,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
         <v>43866</v>
       </c>
       <c r="B13">
@@ -6773,8 +7524,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
         <v>43867</v>
       </c>
       <c r="B14">
@@ -6805,8 +7556,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
         <v>43868</v>
       </c>
       <c r="B15">
@@ -6837,8 +7588,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
         <v>43869</v>
       </c>
       <c r="B16">
@@ -6869,8 +7620,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
         <v>43870</v>
       </c>
       <c r="B17">
@@ -6901,8 +7652,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
         <v>43871</v>
       </c>
       <c r="B18">
@@ -6933,8 +7684,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
         <v>43872</v>
       </c>
       <c r="B19">
@@ -6965,8 +7716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
         <v>43873</v>
       </c>
       <c r="B20">
@@ -6997,8 +7748,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
         <v>43874</v>
       </c>
       <c r="B21">
@@ -7029,8 +7780,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
         <v>43875</v>
       </c>
       <c r="B22">
@@ -7061,8 +7812,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
         <v>43876</v>
       </c>
       <c r="B23">
@@ -7093,8 +7844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
         <v>43877</v>
       </c>
       <c r="B24">
@@ -7125,8 +7876,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
         <v>43878</v>
       </c>
       <c r="B25">
@@ -7157,8 +7908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
         <v>43879</v>
       </c>
       <c r="B26">
@@ -7189,8 +7940,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
         <v>43880</v>
       </c>
       <c r="B27">
@@ -7221,8 +7972,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
         <v>43881</v>
       </c>
       <c r="B28">
@@ -7253,8 +8004,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
         <v>43882</v>
       </c>
       <c r="B29">
@@ -7285,8 +8036,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
         <v>43883</v>
       </c>
       <c r="B30">
@@ -7317,8 +8068,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
         <v>43884</v>
       </c>
       <c r="B31">
@@ -7349,8 +8100,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
         <v>43885</v>
       </c>
       <c r="B32">
@@ -7381,8 +8132,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="1">
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
         <v>43886</v>
       </c>
       <c r="B33">
@@ -7413,8 +8164,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="1">
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
         <v>43887</v>
       </c>
       <c r="B34">
@@ -7445,8 +8196,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="1">
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
         <v>43888</v>
       </c>
       <c r="B35">
@@ -7477,8 +8228,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
         <v>43889</v>
       </c>
       <c r="B36">
@@ -7509,8 +8260,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="1">
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
         <v>43890</v>
       </c>
       <c r="B37">
@@ -7541,8 +8292,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="1">
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
         <v>43891</v>
       </c>
       <c r="B38">
@@ -7573,8 +8324,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="1">
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
         <v>43892</v>
       </c>
       <c r="B39">
@@ -7605,8 +8356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="1">
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
         <v>43893</v>
       </c>
       <c r="B40">
@@ -7637,8 +8388,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="1">
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
         <v>43894</v>
       </c>
       <c r="B41">
@@ -7669,8 +8420,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="1">
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
         <v>43895</v>
       </c>
       <c r="B42">
@@ -7701,8 +8452,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="1">
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
         <v>43896</v>
       </c>
       <c r="B43">
@@ -7733,8 +8484,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="1">
+    <row r="44" spans="1:10">
+      <c r="A44" s="3">
         <v>43897</v>
       </c>
       <c r="B44">
@@ -7765,8 +8516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="1">
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
         <v>43898</v>
       </c>
       <c r="B45">
@@ -7797,8 +8548,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="1">
+    <row r="46" spans="1:10">
+      <c r="A46" s="3">
         <v>43899</v>
       </c>
       <c r="B46">
@@ -7829,8 +8580,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
+    <row r="47" spans="1:10">
+      <c r="A47" s="3">
         <v>43900</v>
       </c>
       <c r="B47">
@@ -7861,8 +8612,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
+    <row r="48" spans="1:10">
+      <c r="A48" s="3">
         <v>43901</v>
       </c>
       <c r="B48">
@@ -7893,8 +8644,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
+    <row r="49" spans="1:10">
+      <c r="A49" s="3">
         <v>43902</v>
       </c>
       <c r="B49">
@@ -7925,8 +8676,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="1">
+    <row r="50" spans="1:10">
+      <c r="A50" s="3">
         <v>43903</v>
       </c>
       <c r="B50">
@@ -7957,8 +8708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="1">
+    <row r="51" spans="1:10">
+      <c r="A51" s="3">
         <v>43904</v>
       </c>
       <c r="B51">
@@ -7989,8 +8740,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
+    <row r="52" spans="1:10">
+      <c r="A52" s="3">
         <v>43905</v>
       </c>
       <c r="B52">
@@ -8021,8 +8772,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
+    <row r="53" spans="1:10">
+      <c r="A53" s="3">
         <v>43906</v>
       </c>
       <c r="B53">
@@ -8053,8 +8804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="1">
+    <row r="54" spans="1:10">
+      <c r="A54" s="3">
         <v>43907</v>
       </c>
       <c r="B54">
@@ -8085,8 +8836,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="1">
+    <row r="55" spans="1:10">
+      <c r="A55" s="3">
         <v>43908</v>
       </c>
       <c r="B55">
@@ -8117,8 +8868,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="1">
+    <row r="56" spans="1:10">
+      <c r="A56" s="3">
         <v>43909</v>
       </c>
       <c r="B56">
@@ -8149,8 +8900,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="1">
+    <row r="57" spans="1:10">
+      <c r="A57" s="3">
         <v>43910</v>
       </c>
       <c r="B57">
@@ -8181,8 +8932,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="1">
+    <row r="58" spans="1:10">
+      <c r="A58" s="3">
         <v>43911</v>
       </c>
       <c r="B58">
@@ -8213,8 +8964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="1">
+    <row r="59" spans="1:10">
+      <c r="A59" s="3">
         <v>43912</v>
       </c>
       <c r="B59">
@@ -8245,8 +8996,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="1">
+    <row r="60" spans="1:10">
+      <c r="A60" s="3">
         <v>43913</v>
       </c>
       <c r="B60">
@@ -8277,8 +9028,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="1">
+    <row r="61" spans="1:10">
+      <c r="A61" s="3">
         <v>43914</v>
       </c>
       <c r="B61">
@@ -8309,8 +9060,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="1">
+    <row r="62" spans="1:10">
+      <c r="A62" s="3">
         <v>43915</v>
       </c>
       <c r="B62">
@@ -8341,8 +9092,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="1">
+    <row r="63" spans="1:10">
+      <c r="A63" s="3">
         <v>43916</v>
       </c>
       <c r="B63">
@@ -8373,8 +9124,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="1">
+    <row r="64" spans="1:10">
+      <c r="A64" s="3">
         <v>43917</v>
       </c>
       <c r="B64">
@@ -8405,8 +9156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="1">
+    <row r="65" spans="1:10">
+      <c r="A65" s="3">
         <v>43918</v>
       </c>
       <c r="B65">
@@ -8437,8 +9188,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="1">
+    <row r="66" spans="1:10">
+      <c r="A66" s="3">
         <v>43919</v>
       </c>
       <c r="B66">
@@ -8469,8 +9220,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="1">
+    <row r="67" spans="1:10">
+      <c r="A67" s="3">
         <v>43920</v>
       </c>
       <c r="B67">
@@ -8501,23 +9252,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>66</v>
+    <row r="68" spans="1:10">
+      <c r="A68" s="3">
+        <v>43921</v>
       </c>
       <c r="B68">
-        <v>3311</v>
+        <v>292</v>
       </c>
       <c r="C68">
-        <v>216</v>
-      </c>
-      <c r="F68">
-        <v>80</v>
-      </c>
-      <c r="H68">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>244</v>
+      </c>
+      <c r="E68" s="4">
+        <v>158</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4</v>
+      </c>
+      <c r="G68" s="4">
+        <v>84</v>
+      </c>
+      <c r="H68" s="4">
+        <v>4</v>
+      </c>
+      <c r="I68" s="4">
+        <v>84</v>
       </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>3603</v>
+      </c>
+      <c r="C69">
+        <v>244</v>
+      </c>
+      <c r="F69" s="4">
+        <v>84</v>
+      </c>
+      <c r="H69" s="4">
+        <v>84</v>
+      </c>
+      <c r="J69">
         <v>2</v>
       </c>
     </row>

--- a/patients_and_inspections.xlsx
+++ b/patients_and_inspections.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teppei/Dropbox/鉄兵/CODEforOSAKA/2019/20200312_COVID19/20200403/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TanakaMo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83712C4-D1C3-5C47-8571-7200C83C5399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="19160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="470" windowWidth="33000" windowHeight="19160"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="71">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -246,15 +245,18 @@
   <si>
     <t>計</t>
   </si>
+  <si>
+    <t>四條畷市</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +267,22 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -288,12 +306,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,9 +330,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,21 +613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -610,52 +635,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -663,23 +688,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -687,28 +712,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <v>311</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -719,27 +744,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H314"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J386" sqref="J386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -765,7 +790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -791,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -817,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -843,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -869,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -895,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
@@ -921,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
@@ -947,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
@@ -973,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
@@ -999,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1025,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1051,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1077,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1103,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1129,7 +1154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1181,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1207,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1233,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1259,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1285,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1311,7 +1336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1337,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1363,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1389,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1415,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1441,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1467,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1493,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1519,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1545,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1571,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1597,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1623,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1649,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1675,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1701,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1727,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1753,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1779,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1805,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1831,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1857,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1883,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1909,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1935,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1961,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1987,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2013,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2039,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2065,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2091,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2117,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2143,7 +2168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2169,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2195,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2221,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2247,7 +2272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2273,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2299,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2325,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2351,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2377,7 +2402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2403,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2429,7 +2454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2455,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2481,7 +2506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2507,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2533,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2559,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2585,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2611,7 +2636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2637,7 +2662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2663,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2689,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2715,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2741,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2767,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2793,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2819,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2845,7 +2870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2871,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2897,7 +2922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2923,7 +2948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2949,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2975,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3001,7 +3026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3027,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3053,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3079,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3105,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3131,7 +3156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3157,7 +3182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3183,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3209,7 +3234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3235,7 +3260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3261,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3287,7 +3312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3313,7 +3338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3339,7 +3364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3365,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3391,7 +3416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3417,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3443,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3469,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3495,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3547,7 +3572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3573,7 +3598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3599,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3625,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3651,7 +3676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3677,7 +3702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3703,7 +3728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3729,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3755,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3781,7 +3806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3807,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3833,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3859,7 +3884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3885,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3911,7 +3936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3937,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3963,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3989,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4015,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4041,7 +4066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4067,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4093,7 +4118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4119,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4145,7 +4170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4171,7 +4196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4197,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4223,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4249,7 +4274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4275,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4301,7 +4326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4327,7 +4352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4353,7 +4378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4379,7 +4404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4405,7 +4430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4431,7 +4456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4457,7 +4482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4483,7 +4508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4509,7 +4534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4535,7 +4560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4561,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4587,7 +4612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4613,7 +4638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4639,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4665,7 +4690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4691,7 +4716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4717,7 +4742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4743,7 +4768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4769,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4795,7 +4820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4821,7 +4846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4847,7 +4872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4873,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4899,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4925,7 +4950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4951,7 +4976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>162</v>
       </c>
@@ -4977,7 +5002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5003,7 +5028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5029,7 +5054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5055,7 +5080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5081,7 +5106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5107,7 +5132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5133,7 +5158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5159,7 +5184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5185,7 +5210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5211,7 +5236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5237,7 +5262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5263,7 +5288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5289,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5315,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5341,7 +5366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5367,7 +5392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5393,7 +5418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5419,7 +5444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5445,7 +5470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5471,7 +5496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5497,7 +5522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5523,7 +5548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5549,7 +5574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5575,7 +5600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5601,7 +5626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5627,7 +5652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5653,7 +5678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5679,7 +5704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5705,7 +5730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5731,7 +5756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5757,7 +5782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5783,7 +5808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5809,7 +5834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5835,7 +5860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5861,7 +5886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5887,7 +5912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5913,7 +5938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5939,7 +5964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5965,7 +5990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>201</v>
       </c>
@@ -5991,7 +6016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6017,7 +6042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6043,7 +6068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6069,7 +6094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6095,7 +6120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6121,7 +6146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6147,7 +6172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6173,7 +6198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6199,7 +6224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6225,7 +6250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6251,7 +6276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6277,7 +6302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6303,7 +6328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6329,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6355,7 +6380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6381,7 +6406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6407,7 +6432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6433,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6459,7 +6484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6485,7 +6510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6511,7 +6536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6537,7 +6562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6563,7 +6588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6589,7 +6614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6615,7 +6640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6641,7 +6666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6667,7 +6692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6693,7 +6718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6719,7 +6744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6745,7 +6770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6771,7 +6796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6797,7 +6822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6823,7 +6848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6849,7 +6874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6875,7 +6900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6901,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6927,7 +6952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6953,7 +6978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6979,7 +7004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7005,7 +7030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7031,7 +7056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7057,7 +7082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7083,7 +7108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7109,7 +7134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>245</v>
       </c>
@@ -7135,7 +7160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>246</v>
       </c>
@@ -7161,7 +7186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>247</v>
       </c>
@@ -7187,7 +7212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>248</v>
       </c>
@@ -7213,7 +7238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>249</v>
       </c>
@@ -7239,7 +7264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7265,7 +7290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7291,7 +7316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7317,7 +7342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7343,7 +7368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7369,7 +7394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7395,7 +7420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7421,7 +7446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7447,7 +7472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7473,7 +7498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>259</v>
       </c>
@@ -7499,7 +7524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7525,7 +7550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7551,7 +7576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7577,7 +7602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7603,7 +7628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7629,7 +7654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7655,7 +7680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7681,7 +7706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7707,7 +7732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7733,7 +7758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7759,7 +7784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7785,7 +7810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7811,7 +7836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7837,7 +7862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7863,7 +7888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7889,7 +7914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7915,7 +7940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7941,7 +7966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7967,7 +7992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>278</v>
       </c>
@@ -7993,7 +8018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>279</v>
       </c>
@@ -8019,18 +8044,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>43923</v>
       </c>
       <c r="C282">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D282" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E282" t="s">
         <v>25</v>
@@ -8045,15 +8070,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>43923</v>
       </c>
       <c r="C283">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D283" t="s">
         <v>26</v>
@@ -8062,76 +8087,76 @@
         <v>25</v>
       </c>
       <c r="F283" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="G283" t="s">
         <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>43923</v>
       </c>
       <c r="C284">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D284" t="s">
         <v>26</v>
       </c>
       <c r="E284" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F284" s="1">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="G284" t="s">
         <v>10</v>
       </c>
       <c r="H284" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>43923</v>
       </c>
       <c r="C285">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D285" t="s">
         <v>26</v>
       </c>
       <c r="E285" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F285" s="1">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="G285" t="s">
         <v>10</v>
       </c>
       <c r="H285" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>43923</v>
       </c>
       <c r="C286">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D286" t="s">
         <v>26</v>
@@ -8140,7 +8165,7 @@
         <v>25</v>
       </c>
       <c r="F286" s="1">
-        <v>43912</v>
+        <v>43918</v>
       </c>
       <c r="G286" t="s">
         <v>10</v>
@@ -8149,15 +8174,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>43923</v>
       </c>
       <c r="C287">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D287" t="s">
         <v>26</v>
@@ -8166,24 +8191,24 @@
         <v>25</v>
       </c>
       <c r="F287" s="1">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="G287" t="s">
         <v>10</v>
       </c>
       <c r="H287" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>43923</v>
       </c>
       <c r="C288">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D288" t="s">
         <v>26</v>
@@ -8192,7 +8217,7 @@
         <v>25</v>
       </c>
       <c r="F288" s="1">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="G288" t="s">
         <v>10</v>
@@ -8201,15 +8226,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>43923</v>
       </c>
       <c r="C289">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D289" t="s">
         <v>26</v>
@@ -8218,7 +8243,7 @@
         <v>25</v>
       </c>
       <c r="F289" s="1">
-        <v>43913</v>
+        <v>43919</v>
       </c>
       <c r="G289" t="s">
         <v>10</v>
@@ -8227,15 +8252,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>43923</v>
       </c>
       <c r="C290">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D290" t="s">
         <v>26</v>
@@ -8244,7 +8269,7 @@
         <v>25</v>
       </c>
       <c r="F290" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="G290" t="s">
         <v>10</v>
@@ -8253,15 +8278,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>43923</v>
       </c>
       <c r="C291">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D291" t="s">
         <v>26</v>
@@ -8270,7 +8295,7 @@
         <v>25</v>
       </c>
       <c r="F291" s="1">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="G291" t="s">
         <v>10</v>
@@ -8279,15 +8304,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>43923</v>
       </c>
       <c r="C292">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D292" t="s">
         <v>26</v>
@@ -8296,7 +8321,7 @@
         <v>25</v>
       </c>
       <c r="F292" s="1">
-        <v>43914</v>
+        <v>43919</v>
       </c>
       <c r="G292" t="s">
         <v>10</v>
@@ -8305,15 +8330,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>43923</v>
       </c>
       <c r="C293">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D293" t="s">
         <v>26</v>
@@ -8322,7 +8347,7 @@
         <v>25</v>
       </c>
       <c r="F293" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="G293" t="s">
         <v>10</v>
@@ -8331,9 +8356,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>43923</v>
@@ -8345,10 +8370,10 @@
         <v>26</v>
       </c>
       <c r="E294" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F294" s="1">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="G294" t="s">
         <v>10</v>
@@ -8357,15 +8382,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>43923</v>
       </c>
       <c r="C295">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D295" t="s">
         <v>26</v>
@@ -8374,7 +8399,7 @@
         <v>35</v>
       </c>
       <c r="F295" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="G295" t="s">
         <v>10</v>
@@ -8383,93 +8408,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>43923</v>
       </c>
       <c r="C296">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E296" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F296" s="1">
-        <v>43918</v>
+        <v>43923</v>
       </c>
       <c r="G296" t="s">
         <v>10</v>
       </c>
       <c r="H296" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>43923</v>
       </c>
       <c r="C297">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D297" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E297" t="s">
-        <v>34</v>
-      </c>
-      <c r="F297" s="1">
-        <v>43923</v>
+        <v>30</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G297" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>43923</v>
       </c>
       <c r="C298">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D298" t="s">
         <v>26</v>
       </c>
       <c r="E298" t="s">
-        <v>30</v>
-      </c>
-      <c r="F298" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="F298" s="1">
+        <v>43916</v>
       </c>
       <c r="G298" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H298" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>43923</v>
       </c>
       <c r="C299">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D299" t="s">
         <v>26</v>
@@ -8487,24 +8512,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>43923</v>
       </c>
       <c r="C300">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
         <v>26</v>
       </c>
       <c r="E300" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F300" s="1">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="G300" t="s">
         <v>10</v>
@@ -8513,24 +8538,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>43923</v>
       </c>
       <c r="C301">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D301" t="s">
         <v>26</v>
       </c>
       <c r="E301" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F301" s="1">
-        <v>43918</v>
+        <v>43911</v>
       </c>
       <c r="G301" t="s">
         <v>10</v>
@@ -8539,24 +8564,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>43923</v>
       </c>
       <c r="C302">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E302" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F302" s="1">
-        <v>43911</v>
+        <v>43919</v>
       </c>
       <c r="G302" t="s">
         <v>10</v>
@@ -8565,24 +8590,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>43923</v>
       </c>
       <c r="C303">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D303" t="s">
         <v>24</v>
       </c>
       <c r="E303" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F303" s="1">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="G303" t="s">
         <v>10</v>
@@ -8591,9 +8616,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>43923</v>
@@ -8602,13 +8627,13 @@
         <v>80</v>
       </c>
       <c r="D304" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E304" t="s">
         <v>46</v>
       </c>
       <c r="F304" s="1">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="G304" t="s">
         <v>10</v>
@@ -8617,9 +8642,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>43923</v>
@@ -8628,13 +8653,13 @@
         <v>80</v>
       </c>
       <c r="D305" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E305" t="s">
         <v>46</v>
       </c>
       <c r="F305" s="1">
-        <v>43922</v>
+        <v>43916</v>
       </c>
       <c r="G305" t="s">
         <v>10</v>
@@ -8643,24 +8668,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>43923</v>
       </c>
       <c r="C306">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D306" t="s">
         <v>24</v>
       </c>
       <c r="E306" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F306" s="1">
-        <v>43916</v>
+        <v>43921</v>
       </c>
       <c r="G306" t="s">
         <v>10</v>
@@ -8669,87 +8694,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>43923</v>
       </c>
       <c r="C307">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D307" t="s">
         <v>24</v>
       </c>
       <c r="E307" t="s">
-        <v>35</v>
-      </c>
-      <c r="F307" s="1">
-        <v>43921</v>
+        <v>25</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G307" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H307" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>43923</v>
       </c>
       <c r="C308">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D308" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E308" t="s">
-        <v>25</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="F308" s="1">
+        <v>43918</v>
       </c>
       <c r="G308" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H308" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>43923</v>
       </c>
       <c r="C309">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D309" t="s">
         <v>26</v>
       </c>
       <c r="E309" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F309" s="1">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="G309" t="s">
         <v>10</v>
       </c>
       <c r="H309" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>43923</v>
@@ -8761,10 +8786,10 @@
         <v>26</v>
       </c>
       <c r="E310" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F310" s="1">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="G310" t="s">
         <v>10</v>
@@ -8773,24 +8798,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>43923</v>
       </c>
       <c r="C311">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D311" t="s">
         <v>26</v>
       </c>
       <c r="E311" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F311" s="1">
-        <v>43911</v>
+        <v>43917</v>
       </c>
       <c r="G311" t="s">
         <v>10</v>
@@ -8799,82 +8824,2032 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>43923</v>
       </c>
       <c r="C312">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D312" t="s">
         <v>26</v>
       </c>
       <c r="E312" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F312" s="1">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="G312" t="s">
         <v>10</v>
       </c>
       <c r="H312" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>43923</v>
       </c>
       <c r="C313">
+        <v>50</v>
+      </c>
+      <c r="D313" t="s">
+        <v>26</v>
+      </c>
+      <c r="E313" t="s">
+        <v>42</v>
+      </c>
+      <c r="F313" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G313" t="s">
+        <v>10</v>
+      </c>
+      <c r="H313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C314">
+        <v>20</v>
+      </c>
+      <c r="D314" t="s">
+        <v>24</v>
+      </c>
+      <c r="E314" t="s">
+        <v>25</v>
+      </c>
+      <c r="F314" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G314" t="s">
+        <v>10</v>
+      </c>
+      <c r="H314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C315">
+        <v>40</v>
+      </c>
+      <c r="D315" t="s">
+        <v>26</v>
+      </c>
+      <c r="E315" t="s">
+        <v>25</v>
+      </c>
+      <c r="F315" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G315" t="s">
+        <v>10</v>
+      </c>
+      <c r="H315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C316">
+        <v>50</v>
+      </c>
+      <c r="D316" t="s">
+        <v>24</v>
+      </c>
+      <c r="E316" t="s">
+        <v>25</v>
+      </c>
+      <c r="F316" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G316" t="s">
+        <v>10</v>
+      </c>
+      <c r="H316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C317">
+        <v>40</v>
+      </c>
+      <c r="D317" t="s">
+        <v>26</v>
+      </c>
+      <c r="E317" t="s">
+        <v>25</v>
+      </c>
+      <c r="F317" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G317" t="s">
+        <v>10</v>
+      </c>
+      <c r="H317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C318">
+        <v>30</v>
+      </c>
+      <c r="D318" t="s">
+        <v>24</v>
+      </c>
+      <c r="E318" t="s">
+        <v>25</v>
+      </c>
+      <c r="F318" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G318" t="s">
+        <v>10</v>
+      </c>
+      <c r="H318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C319">
+        <v>20</v>
+      </c>
+      <c r="D319" t="s">
+        <v>26</v>
+      </c>
+      <c r="E319" t="s">
+        <v>25</v>
+      </c>
+      <c r="F319" s="1">
+        <v>43911</v>
+      </c>
+      <c r="G319" t="s">
+        <v>10</v>
+      </c>
+      <c r="H319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C320">
+        <v>30</v>
+      </c>
+      <c r="D320" t="s">
+        <v>26</v>
+      </c>
+      <c r="E320" t="s">
+        <v>25</v>
+      </c>
+      <c r="F320" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G320" t="s">
+        <v>10</v>
+      </c>
+      <c r="H320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C321">
+        <v>30</v>
+      </c>
+      <c r="D321" t="s">
+        <v>24</v>
+      </c>
+      <c r="E321" t="s">
+        <v>25</v>
+      </c>
+      <c r="F321" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G321" t="s">
+        <v>10</v>
+      </c>
+      <c r="H321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C322">
+        <v>20</v>
+      </c>
+      <c r="D322" t="s">
+        <v>24</v>
+      </c>
+      <c r="E322" t="s">
+        <v>25</v>
+      </c>
+      <c r="F322" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G322" t="s">
+        <v>10</v>
+      </c>
+      <c r="H322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C323">
+        <v>20</v>
+      </c>
+      <c r="D323" t="s">
+        <v>26</v>
+      </c>
+      <c r="E323" t="s">
+        <v>25</v>
+      </c>
+      <c r="F323" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G323" t="s">
+        <v>10</v>
+      </c>
+      <c r="H323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C324">
+        <v>60</v>
+      </c>
+      <c r="D324" t="s">
+        <v>26</v>
+      </c>
+      <c r="E324" t="s">
+        <v>25</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G324" t="s">
+        <v>10</v>
+      </c>
+      <c r="H324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C325">
+        <v>20</v>
+      </c>
+      <c r="D325" t="s">
+        <v>26</v>
+      </c>
+      <c r="E325" t="s">
+        <v>25</v>
+      </c>
+      <c r="F325" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G325" t="s">
+        <v>10</v>
+      </c>
+      <c r="H325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C326">
+        <v>50</v>
+      </c>
+      <c r="D326" t="s">
+        <v>26</v>
+      </c>
+      <c r="E326" t="s">
+        <v>25</v>
+      </c>
+      <c r="F326" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G326" t="s">
+        <v>11</v>
+      </c>
+      <c r="H326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C327">
+        <v>40</v>
+      </c>
+      <c r="D327" t="s">
+        <v>26</v>
+      </c>
+      <c r="E327" t="s">
+        <v>25</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G327" t="s">
+        <v>10</v>
+      </c>
+      <c r="H327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C328">
+        <v>30</v>
+      </c>
+      <c r="D328" t="s">
+        <v>26</v>
+      </c>
+      <c r="E328" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G328" t="s">
+        <v>10</v>
+      </c>
+      <c r="H328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C329">
+        <v>20</v>
+      </c>
+      <c r="D329" t="s">
+        <v>26</v>
+      </c>
+      <c r="E329" t="s">
+        <v>25</v>
+      </c>
+      <c r="F329" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G329" t="s">
+        <v>10</v>
+      </c>
+      <c r="H329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C330">
+        <v>40</v>
+      </c>
+      <c r="D330" t="s">
+        <v>24</v>
+      </c>
+      <c r="E330" t="s">
+        <v>25</v>
+      </c>
+      <c r="F330" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G330" t="s">
+        <v>10</v>
+      </c>
+      <c r="H330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C331">
+        <v>30</v>
+      </c>
+      <c r="D331" t="s">
+        <v>24</v>
+      </c>
+      <c r="E331" t="s">
+        <v>25</v>
+      </c>
+      <c r="F331" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G331" t="s">
+        <v>10</v>
+      </c>
+      <c r="H331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C332">
+        <v>20</v>
+      </c>
+      <c r="D332" t="s">
+        <v>24</v>
+      </c>
+      <c r="E332" t="s">
+        <v>25</v>
+      </c>
+      <c r="F332" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G332" t="s">
+        <v>10</v>
+      </c>
+      <c r="H332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C333">
+        <v>50</v>
+      </c>
+      <c r="D333" t="s">
+        <v>26</v>
+      </c>
+      <c r="E333" t="s">
+        <v>35</v>
+      </c>
+      <c r="F333" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G333" t="s">
+        <v>10</v>
+      </c>
+      <c r="H333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C334">
+        <v>30</v>
+      </c>
+      <c r="D334" t="s">
+        <v>26</v>
+      </c>
+      <c r="E334" t="s">
+        <v>35</v>
+      </c>
+      <c r="F334" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G334" t="s">
+        <v>10</v>
+      </c>
+      <c r="H334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C335">
+        <v>20</v>
+      </c>
+      <c r="D335" t="s">
+        <v>24</v>
+      </c>
+      <c r="E335" t="s">
+        <v>35</v>
+      </c>
+      <c r="F335" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G335" t="s">
+        <v>10</v>
+      </c>
+      <c r="H335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C336">
+        <v>60</v>
+      </c>
+      <c r="D336" t="s">
+        <v>24</v>
+      </c>
+      <c r="E336" t="s">
+        <v>35</v>
+      </c>
+      <c r="F336" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G336" t="s">
+        <v>10</v>
+      </c>
+      <c r="H336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C337">
+        <v>50</v>
+      </c>
+      <c r="D337" t="s">
+        <v>26</v>
+      </c>
+      <c r="E337" t="s">
+        <v>40</v>
+      </c>
+      <c r="F337" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G337" t="s">
+        <v>10</v>
+      </c>
+      <c r="H337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C338">
+        <v>30</v>
+      </c>
+      <c r="D338" t="s">
+        <v>26</v>
+      </c>
+      <c r="E338" t="s">
+        <v>38</v>
+      </c>
+      <c r="F338" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G338" t="s">
+        <v>10</v>
+      </c>
+      <c r="H338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C339">
+        <v>20</v>
+      </c>
+      <c r="D339" t="s">
+        <v>26</v>
+      </c>
+      <c r="E339" t="s">
+        <v>32</v>
+      </c>
+      <c r="F339" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G339" t="s">
+        <v>10</v>
+      </c>
+      <c r="H339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C340">
+        <v>40</v>
+      </c>
+      <c r="D340" t="s">
+        <v>24</v>
+      </c>
+      <c r="E340" t="s">
+        <v>39</v>
+      </c>
+      <c r="F340" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G340" t="s">
+        <v>10</v>
+      </c>
+      <c r="H340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C341">
+        <v>40</v>
+      </c>
+      <c r="D341" t="s">
+        <v>26</v>
+      </c>
+      <c r="E341" t="s">
+        <v>44</v>
+      </c>
+      <c r="F341" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G341" t="s">
+        <v>10</v>
+      </c>
+      <c r="H341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C342">
+        <v>60</v>
+      </c>
+      <c r="D342" t="s">
+        <v>24</v>
+      </c>
+      <c r="E342" t="s">
+        <v>29</v>
+      </c>
+      <c r="F342" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G342" t="s">
+        <v>10</v>
+      </c>
+      <c r="H342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C343">
+        <v>50</v>
+      </c>
+      <c r="D343" t="s">
+        <v>26</v>
+      </c>
+      <c r="E343" t="s">
+        <v>29</v>
+      </c>
+      <c r="F343" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G343" t="s">
+        <v>10</v>
+      </c>
+      <c r="H343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C344">
+        <v>50</v>
+      </c>
+      <c r="D344" t="s">
+        <v>24</v>
+      </c>
+      <c r="E344" t="s">
+        <v>60</v>
+      </c>
+      <c r="F344" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G344" t="s">
+        <v>10</v>
+      </c>
+      <c r="H344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C345">
+        <v>40</v>
+      </c>
+      <c r="D345" t="s">
+        <v>26</v>
+      </c>
+      <c r="E345" t="s">
+        <v>46</v>
+      </c>
+      <c r="F345" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G345" t="s">
+        <v>10</v>
+      </c>
+      <c r="H345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C346">
+        <v>20</v>
+      </c>
+      <c r="D346" t="s">
+        <v>26</v>
+      </c>
+      <c r="E346" t="s">
+        <v>36</v>
+      </c>
+      <c r="F346" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G346" t="s">
+        <v>10</v>
+      </c>
+      <c r="H346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C347">
+        <v>20</v>
+      </c>
+      <c r="D347" t="s">
+        <v>26</v>
+      </c>
+      <c r="E347" t="s">
+        <v>42</v>
+      </c>
+      <c r="F347" s="1">
+        <v>43911</v>
+      </c>
+      <c r="G347" t="s">
+        <v>10</v>
+      </c>
+      <c r="H347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C348">
+        <v>50</v>
+      </c>
+      <c r="D348" t="s">
+        <v>26</v>
+      </c>
+      <c r="E348" t="s">
+        <v>45</v>
+      </c>
+      <c r="F348" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G348" t="s">
+        <v>10</v>
+      </c>
+      <c r="H348" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C349">
+        <v>20</v>
+      </c>
+      <c r="D349" t="s">
+        <v>24</v>
+      </c>
+      <c r="E349" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" s="1">
+        <v>43900</v>
+      </c>
+      <c r="G349" t="s">
+        <v>10</v>
+      </c>
+      <c r="H349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C350">
+        <v>40</v>
+      </c>
+      <c r="D350" t="s">
+        <v>26</v>
+      </c>
+      <c r="E350" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G350" t="s">
+        <v>10</v>
+      </c>
+      <c r="H350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C351">
+        <v>30</v>
+      </c>
+      <c r="D351" t="s">
+        <v>26</v>
+      </c>
+      <c r="E351" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G351" t="s">
+        <v>10</v>
+      </c>
+      <c r="H351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C352">
+        <v>20</v>
+      </c>
+      <c r="D352" t="s">
+        <v>24</v>
+      </c>
+      <c r="E352" t="s">
+        <v>25</v>
+      </c>
+      <c r="F352" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G352" t="s">
+        <v>10</v>
+      </c>
+      <c r="H352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C353">
+        <v>30</v>
+      </c>
+      <c r="D353" t="s">
+        <v>24</v>
+      </c>
+      <c r="E353" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353" s="1">
+        <v>43912</v>
+      </c>
+      <c r="G353" t="s">
+        <v>10</v>
+      </c>
+      <c r="H353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C354">
+        <v>50</v>
+      </c>
+      <c r="D354" t="s">
+        <v>26</v>
+      </c>
+      <c r="E354" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G354" t="s">
+        <v>10</v>
+      </c>
+      <c r="H354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C355">
+        <v>30</v>
+      </c>
+      <c r="D355" t="s">
+        <v>26</v>
+      </c>
+      <c r="E355" t="s">
+        <v>25</v>
+      </c>
+      <c r="F355" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G355" t="s">
+        <v>10</v>
+      </c>
+      <c r="H355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C356">
+        <v>50</v>
+      </c>
+      <c r="D356" t="s">
+        <v>26</v>
+      </c>
+      <c r="E356" t="s">
+        <v>32</v>
+      </c>
+      <c r="F356" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G356" t="s">
+        <v>10</v>
+      </c>
+      <c r="H356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C357">
+        <v>50</v>
+      </c>
+      <c r="D357" t="s">
+        <v>26</v>
+      </c>
+      <c r="E357" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G357" t="s">
+        <v>10</v>
+      </c>
+      <c r="H357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C358">
+        <v>30</v>
+      </c>
+      <c r="D358" t="s">
+        <v>26</v>
+      </c>
+      <c r="E358" t="s">
+        <v>25</v>
+      </c>
+      <c r="F358" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G358" t="s">
+        <v>10</v>
+      </c>
+      <c r="H358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C359">
+        <v>40</v>
+      </c>
+      <c r="D359" t="s">
+        <v>24</v>
+      </c>
+      <c r="E359" t="s">
+        <v>25</v>
+      </c>
+      <c r="F359" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G359" t="s">
+        <v>10</v>
+      </c>
+      <c r="H359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C360">
+        <v>40</v>
+      </c>
+      <c r="D360" t="s">
+        <v>24</v>
+      </c>
+      <c r="E360" t="s">
+        <v>25</v>
+      </c>
+      <c r="F360" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G360" t="s">
+        <v>10</v>
+      </c>
+      <c r="H360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C361">
+        <v>20</v>
+      </c>
+      <c r="D361" t="s">
+        <v>24</v>
+      </c>
+      <c r="E361" t="s">
+        <v>25</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G361" t="s">
+        <v>10</v>
+      </c>
+      <c r="H361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C362">
+        <v>20</v>
+      </c>
+      <c r="D362" t="s">
+        <v>24</v>
+      </c>
+      <c r="E362" t="s">
+        <v>25</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G362" t="s">
+        <v>10</v>
+      </c>
+      <c r="H362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C363">
+        <v>30</v>
+      </c>
+      <c r="D363" t="s">
+        <v>24</v>
+      </c>
+      <c r="E363" t="s">
+        <v>35</v>
+      </c>
+      <c r="F363" s="1">
+        <v>43908</v>
+      </c>
+      <c r="G363" t="s">
+        <v>10</v>
+      </c>
+      <c r="H363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C364">
+        <v>20</v>
+      </c>
+      <c r="D364" t="s">
+        <v>24</v>
+      </c>
+      <c r="E364" t="s">
+        <v>46</v>
+      </c>
+      <c r="F364" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G364" t="s">
+        <v>10</v>
+      </c>
+      <c r="H364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C365">
+        <v>80</v>
+      </c>
+      <c r="D365" t="s">
+        <v>26</v>
+      </c>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
+      <c r="F365" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G365" t="s">
+        <v>11</v>
+      </c>
+      <c r="H365" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C366">
+        <v>20</v>
+      </c>
+      <c r="D366" t="s">
+        <v>24</v>
+      </c>
+      <c r="E366" t="s">
+        <v>25</v>
+      </c>
+      <c r="F366" s="1">
+        <v>43908</v>
+      </c>
+      <c r="G366" t="s">
+        <v>10</v>
+      </c>
+      <c r="H366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C367">
+        <v>30</v>
+      </c>
+      <c r="D367" t="s">
+        <v>26</v>
+      </c>
+      <c r="E367" t="s">
+        <v>25</v>
+      </c>
+      <c r="F367" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G367" t="s">
+        <v>10</v>
+      </c>
+      <c r="H367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C368">
+        <v>30</v>
+      </c>
+      <c r="D368" t="s">
+        <v>24</v>
+      </c>
+      <c r="E368" t="s">
+        <v>25</v>
+      </c>
+      <c r="F368" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G368" t="s">
+        <v>10</v>
+      </c>
+      <c r="H368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C369">
+        <v>40</v>
+      </c>
+      <c r="D369" t="s">
+        <v>26</v>
+      </c>
+      <c r="E369" t="s">
+        <v>25</v>
+      </c>
+      <c r="F369" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G369" t="s">
+        <v>10</v>
+      </c>
+      <c r="H369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C370">
+        <v>30</v>
+      </c>
+      <c r="D370" t="s">
+        <v>26</v>
+      </c>
+      <c r="E370" t="s">
+        <v>31</v>
+      </c>
+      <c r="F370" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G370" t="s">
+        <v>10</v>
+      </c>
+      <c r="H370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C371">
+        <v>30</v>
+      </c>
+      <c r="D371" t="s">
+        <v>24</v>
+      </c>
+      <c r="E371" t="s">
+        <v>31</v>
+      </c>
+      <c r="F371" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G371" t="s">
+        <v>10</v>
+      </c>
+      <c r="H371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C372">
+        <v>60</v>
+      </c>
+      <c r="D372" t="s">
+        <v>24</v>
+      </c>
+      <c r="E372" t="s">
+        <v>31</v>
+      </c>
+      <c r="F372" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G372" t="s">
+        <v>10</v>
+      </c>
+      <c r="H372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C373">
+        <v>50</v>
+      </c>
+      <c r="D373" t="s">
+        <v>26</v>
+      </c>
+      <c r="E373" t="s">
+        <v>31</v>
+      </c>
+      <c r="F373" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G373" t="s">
+        <v>10</v>
+      </c>
+      <c r="H373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C374">
+        <v>20</v>
+      </c>
+      <c r="D374" t="s">
+        <v>26</v>
+      </c>
+      <c r="E374" t="s">
+        <v>31</v>
+      </c>
+      <c r="F374" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G374" t="s">
+        <v>10</v>
+      </c>
+      <c r="H374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C375">
+        <v>20</v>
+      </c>
+      <c r="D375" t="s">
+        <v>26</v>
+      </c>
+      <c r="E375" t="s">
+        <v>40</v>
+      </c>
+      <c r="F375" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G375" t="s">
+        <v>10</v>
+      </c>
+      <c r="H375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C376">
+        <v>20</v>
+      </c>
+      <c r="D376" t="s">
+        <v>26</v>
+      </c>
+      <c r="E376" t="s">
+        <v>42</v>
+      </c>
+      <c r="F376" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G376" t="s">
+        <v>10</v>
+      </c>
+      <c r="H376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C377">
         <v>70</v>
       </c>
-      <c r="D313" t="s">
-        <v>26</v>
-      </c>
-      <c r="E313" t="s">
-        <v>25</v>
-      </c>
-      <c r="F313" s="1">
-        <v>43913</v>
-      </c>
-      <c r="G313" t="s">
-        <v>10</v>
-      </c>
-      <c r="H313" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="A314">
-        <v>311</v>
-      </c>
-      <c r="B314" s="2">
-        <v>43923</v>
-      </c>
-      <c r="C314">
+      <c r="D377" t="s">
+        <v>24</v>
+      </c>
+      <c r="E377" t="s">
+        <v>42</v>
+      </c>
+      <c r="F377" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G377" t="s">
+        <v>10</v>
+      </c>
+      <c r="H377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C378">
+        <v>30</v>
+      </c>
+      <c r="D378" t="s">
+        <v>24</v>
+      </c>
+      <c r="E378" t="s">
+        <v>30</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G378" t="s">
+        <v>10</v>
+      </c>
+      <c r="H378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C379">
+        <v>30</v>
+      </c>
+      <c r="D379" t="s">
+        <v>26</v>
+      </c>
+      <c r="E379" t="s">
+        <v>29</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G379" t="s">
+        <v>10</v>
+      </c>
+      <c r="H379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C380">
+        <v>70</v>
+      </c>
+      <c r="D380" t="s">
+        <v>26</v>
+      </c>
+      <c r="E380" t="s">
+        <v>25</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G380" t="s">
+        <v>11</v>
+      </c>
+      <c r="H380" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C381">
+        <v>20</v>
+      </c>
+      <c r="D381" t="s">
+        <v>26</v>
+      </c>
+      <c r="E381" t="s">
+        <v>70</v>
+      </c>
+      <c r="F381" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G381" t="s">
+        <v>10</v>
+      </c>
+      <c r="H381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C382">
+        <v>20</v>
+      </c>
+      <c r="D382" t="s">
+        <v>26</v>
+      </c>
+      <c r="E382" t="s">
+        <v>52</v>
+      </c>
+      <c r="F382" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G382" t="s">
+        <v>10</v>
+      </c>
+      <c r="H382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C383">
+        <v>70</v>
+      </c>
+      <c r="D383" t="s">
+        <v>24</v>
+      </c>
+      <c r="E383" t="s">
+        <v>46</v>
+      </c>
+      <c r="F383" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G383" t="s">
+        <v>10</v>
+      </c>
+      <c r="H383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C384">
+        <v>80</v>
+      </c>
+      <c r="D384" t="s">
+        <v>26</v>
+      </c>
+      <c r="E384" t="s">
+        <v>46</v>
+      </c>
+      <c r="F384" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G384" t="s">
+        <v>10</v>
+      </c>
+      <c r="H384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C385">
+        <v>60</v>
+      </c>
+      <c r="D385" t="s">
+        <v>24</v>
+      </c>
+      <c r="E385" t="s">
+        <v>49</v>
+      </c>
+      <c r="F385" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G385" t="s">
+        <v>10</v>
+      </c>
+      <c r="H385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C386">
         <v>50</v>
       </c>
-      <c r="D314" t="s">
-        <v>26</v>
-      </c>
-      <c r="E314" t="s">
-        <v>42</v>
-      </c>
-      <c r="F314" s="1">
-        <v>43918</v>
-      </c>
-      <c r="G314" t="s">
-        <v>10</v>
-      </c>
-      <c r="H314" t="s">
-        <v>4</v>
+      <c r="D386" t="s">
+        <v>26</v>
+      </c>
+      <c r="E386" t="s">
+        <v>25</v>
+      </c>
+      <c r="F386" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G386" t="s">
+        <v>10</v>
+      </c>
+      <c r="H386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C387">
+        <v>50</v>
+      </c>
+      <c r="D387" t="s">
+        <v>26</v>
+      </c>
+      <c r="E387" t="s">
+        <v>25</v>
+      </c>
+      <c r="F387" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G387" t="s">
+        <v>10</v>
+      </c>
+      <c r="H387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C388">
+        <v>70</v>
+      </c>
+      <c r="D388" t="s">
+        <v>24</v>
+      </c>
+      <c r="E388" t="s">
+        <v>28</v>
+      </c>
+      <c r="F388" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G388" t="s">
+        <v>10</v>
+      </c>
+      <c r="H388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C389">
+        <v>40</v>
+      </c>
+      <c r="D389" t="s">
+        <v>26</v>
+      </c>
+      <c r="E389" t="s">
+        <v>32</v>
+      </c>
+      <c r="F389" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G389" t="s">
+        <v>10</v>
+      </c>
+      <c r="H389" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8884,27 +10859,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>62</v>
@@ -8934,7 +10909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>43856</v>
       </c>
@@ -8966,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>43857</v>
       </c>
@@ -8998,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>43858</v>
       </c>
@@ -9030,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>43859</v>
       </c>
@@ -9062,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>43860</v>
       </c>
@@ -9094,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>43861</v>
       </c>
@@ -9126,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>43862</v>
       </c>
@@ -9158,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>43863</v>
       </c>
@@ -9190,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>43864</v>
       </c>
@@ -9222,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>43865</v>
       </c>
@@ -9254,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>43866</v>
       </c>
@@ -9286,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>43867</v>
       </c>
@@ -9318,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>43868</v>
       </c>
@@ -9350,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>43869</v>
       </c>
@@ -9382,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>43870</v>
       </c>
@@ -9414,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>43871</v>
       </c>
@@ -9446,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>43872</v>
       </c>
@@ -9478,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>43873</v>
       </c>
@@ -9510,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>43874</v>
       </c>
@@ -9542,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>43875</v>
       </c>
@@ -9574,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>43876</v>
       </c>
@@ -9606,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>43877</v>
       </c>
@@ -9638,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>43878</v>
       </c>
@@ -9670,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>43879</v>
       </c>
@@ -9702,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>43880</v>
       </c>
@@ -9734,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>43881</v>
       </c>
@@ -9766,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>43882</v>
       </c>
@@ -9798,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>43883</v>
       </c>
@@ -9830,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>43884</v>
       </c>
@@ -9862,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>43885</v>
       </c>
@@ -9894,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>43886</v>
       </c>
@@ -9926,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>43887</v>
       </c>
@@ -9958,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>43888</v>
       </c>
@@ -9990,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>43889</v>
       </c>
@@ -10022,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>43890</v>
       </c>
@@ -10054,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>43891</v>
       </c>
@@ -10086,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>43892</v>
       </c>
@@ -10118,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>43893</v>
       </c>
@@ -10150,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>43894</v>
       </c>
@@ -10182,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>43895</v>
       </c>
@@ -10214,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>43896</v>
       </c>
@@ -10246,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>43897</v>
       </c>
@@ -10278,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>43898</v>
       </c>
@@ -10310,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>43899</v>
       </c>
@@ -10342,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <v>43900</v>
       </c>
@@ -10374,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <v>43901</v>
       </c>
@@ -10406,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <v>43902</v>
       </c>
@@ -10438,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>43903</v>
       </c>
@@ -10470,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <v>43904</v>
       </c>
@@ -10502,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <v>43905</v>
       </c>
@@ -10534,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>43906</v>
       </c>
@@ -10566,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <v>43907</v>
       </c>
@@ -10598,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2">
         <v>43908</v>
       </c>
@@ -10630,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2">
         <v>43909</v>
       </c>
@@ -10662,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
         <v>43910</v>
       </c>
@@ -10694,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2">
         <v>43911</v>
       </c>
@@ -10726,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2">
         <v>43912</v>
       </c>
@@ -10758,7 +12733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2">
         <v>43913</v>
       </c>
@@ -10790,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2">
         <v>43914</v>
       </c>
@@ -10822,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2">
         <v>43915</v>
       </c>
@@ -10854,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2">
         <v>43916</v>
       </c>
@@ -10886,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2">
         <v>43917</v>
       </c>
@@ -10918,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2">
         <v>43918</v>
       </c>
@@ -10950,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2">
         <v>43919</v>
       </c>
@@ -10982,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2">
         <v>43920</v>
       </c>
@@ -11014,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2">
         <v>43921</v>
       </c>
@@ -11046,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2">
         <v>43922</v>
       </c>
@@ -11078,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2">
         <v>43923</v>
       </c>
@@ -11110,24 +13085,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B71">
+        <v>274</v>
+      </c>
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>346</v>
+      </c>
+      <c r="E71">
+        <v>244</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>98</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>98</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B72">
+        <v>355</v>
+      </c>
+      <c r="C72">
+        <v>41</v>
+      </c>
+      <c r="D72">
+        <v>387</v>
+      </c>
+      <c r="E72">
+        <v>284</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>99</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>99</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>4099</v>
-      </c>
-      <c r="C71">
-        <v>311</v>
-      </c>
-      <c r="F71">
-        <v>93</v>
-      </c>
-      <c r="H71">
-        <v>93</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="B73">
+        <v>4728</v>
+      </c>
+      <c r="C73">
+        <v>387</v>
+      </c>
+      <c r="F73">
+        <v>99</v>
+      </c>
+      <c r="H73">
+        <v>99</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/patients_and_inspections.xlsx
+++ b/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="470" windowWidth="33000" windowHeight="19160"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="72">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>四條畷市</t>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -617,17 +621,17 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -635,31 +639,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -667,20 +671,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -688,31 +692,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -720,20 +724,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -745,26 +749,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H389"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J386" sqref="J386"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -790,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -816,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -842,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -868,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -894,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -920,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -946,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -972,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1726,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2298,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2636,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2662,7 +2666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3156,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3286,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3416,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3468,7 +3472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3572,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3676,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3702,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3884,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4092,7 +4096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4170,7 +4174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4222,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4274,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4352,7 +4356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4404,7 +4408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4430,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4456,7 +4460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4612,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4664,7 +4668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4690,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4716,7 +4720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4742,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4820,7 +4824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4898,7 +4902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4950,7 +4954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5002,7 +5006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5028,7 +5032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5106,7 +5110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5132,7 +5136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5236,7 +5240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5340,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5574,7 +5578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5626,7 +5630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5886,7 +5890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5990,7 +5994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6042,7 +6046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6094,7 +6098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6172,7 +6176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6198,7 +6202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6406,7 +6410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6458,7 +6462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6484,7 +6488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6562,7 +6566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6588,7 +6592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6666,7 +6670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6692,7 +6696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6744,7 +6748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6874,7 +6878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6926,7 +6930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7030,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7056,7 +7060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7134,7 +7138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>245</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>246</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>247</v>
       </c>
@@ -7212,7 +7216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>248</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>249</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7342,7 +7346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7368,7 +7372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7472,7 +7476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>259</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7602,7 +7606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7628,7 +7632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7732,7 +7736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7758,7 +7762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7810,7 +7814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7914,7 +7918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7966,7 +7970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>278</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>279</v>
       </c>
@@ -8044,7 +8048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>280</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>281</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>282</v>
       </c>
@@ -8122,7 +8126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>283</v>
       </c>
@@ -8148,7 +8152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>284</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>285</v>
       </c>
@@ -8200,7 +8204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>286</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>287</v>
       </c>
@@ -8252,7 +8256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>288</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>289</v>
       </c>
@@ -8304,7 +8308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>290</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>291</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>292</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>293</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>294</v>
       </c>
@@ -8434,7 +8438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>295</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>296</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>297</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>298</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>299</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>300</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>301</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>302</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>303</v>
       </c>
@@ -8668,7 +8672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>304</v>
       </c>
@@ -8694,7 +8698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>305</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>306</v>
       </c>
@@ -8746,7 +8750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>307</v>
       </c>
@@ -8772,7 +8776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>308</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>309</v>
       </c>
@@ -8824,7 +8828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>310</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>311</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>312</v>
       </c>
@@ -8902,7 +8906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8928,7 +8932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8980,7 +8984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>316</v>
       </c>
@@ -9006,7 +9010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>317</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>318</v>
       </c>
@@ -9058,7 +9062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>319</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9110,7 +9114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9136,7 +9140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9188,7 +9192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9214,7 +9218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9266,7 +9270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9396,7 +9400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9500,7 +9504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9656,7 +9660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9708,7 +9712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>345</v>
       </c>
@@ -9760,7 +9764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>346</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>347</v>
       </c>
@@ -9812,7 +9816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>348</v>
       </c>
@@ -9838,7 +9842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>349</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>350</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>351</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>352</v>
       </c>
@@ -9942,7 +9946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>353</v>
       </c>
@@ -9968,7 +9972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>354</v>
       </c>
@@ -9994,7 +9998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10046,7 +10050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10072,7 +10076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10124,7 +10128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10202,7 +10206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>363</v>
       </c>
@@ -10228,7 +10232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>364</v>
       </c>
@@ -10254,7 +10258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>365</v>
       </c>
@@ -10280,7 +10284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>366</v>
       </c>
@@ -10306,7 +10310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>367</v>
       </c>
@@ -10332,7 +10336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>368</v>
       </c>
@@ -10358,7 +10362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>369</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>370</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>371</v>
       </c>
@@ -10436,7 +10440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>372</v>
       </c>
@@ -10462,7 +10466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>373</v>
       </c>
@@ -10488,7 +10492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>374</v>
       </c>
@@ -10514,7 +10518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>375</v>
       </c>
@@ -10540,7 +10544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>376</v>
       </c>
@@ -10566,7 +10570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>377</v>
       </c>
@@ -10592,7 +10596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>378</v>
       </c>
@@ -10618,7 +10622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>379</v>
       </c>
@@ -10644,7 +10648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10670,7 +10674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10696,7 +10700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10722,7 +10726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>383</v>
       </c>
@@ -10748,7 +10752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>384</v>
       </c>
@@ -10774,7 +10778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>385</v>
       </c>
@@ -10800,7 +10804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>386</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>70</v>
       </c>
       <c r="D388" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E388" t="s">
         <v>28</v>
@@ -10826,7 +10830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>387</v>
       </c>
@@ -10849,6 +10853,526 @@
         <v>10</v>
       </c>
       <c r="H389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C390">
+        <v>20</v>
+      </c>
+      <c r="D390" t="s">
+        <v>26</v>
+      </c>
+      <c r="E390" t="s">
+        <v>35</v>
+      </c>
+      <c r="F390" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G390" t="s">
+        <v>10</v>
+      </c>
+      <c r="H390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C391">
+        <v>30</v>
+      </c>
+      <c r="D391" t="s">
+        <v>26</v>
+      </c>
+      <c r="E391" t="s">
+        <v>35</v>
+      </c>
+      <c r="F391" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G391" t="s">
+        <v>10</v>
+      </c>
+      <c r="H391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C392">
+        <v>50</v>
+      </c>
+      <c r="D392" t="s">
+        <v>24</v>
+      </c>
+      <c r="E392" t="s">
+        <v>35</v>
+      </c>
+      <c r="F392" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G392" t="s">
+        <v>10</v>
+      </c>
+      <c r="H392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C393">
+        <v>80</v>
+      </c>
+      <c r="D393" t="s">
+        <v>24</v>
+      </c>
+      <c r="E393" t="s">
+        <v>35</v>
+      </c>
+      <c r="F393" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G393" t="s">
+        <v>10</v>
+      </c>
+      <c r="H393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C394">
+        <v>20</v>
+      </c>
+      <c r="D394" t="s">
+        <v>26</v>
+      </c>
+      <c r="E394" t="s">
+        <v>35</v>
+      </c>
+      <c r="F394" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G394" t="s">
+        <v>10</v>
+      </c>
+      <c r="H394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C395">
+        <v>20</v>
+      </c>
+      <c r="D395" t="s">
+        <v>24</v>
+      </c>
+      <c r="E395" t="s">
+        <v>25</v>
+      </c>
+      <c r="F395" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G395" t="s">
+        <v>10</v>
+      </c>
+      <c r="H395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C396">
+        <v>40</v>
+      </c>
+      <c r="D396" t="s">
+        <v>26</v>
+      </c>
+      <c r="E396" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G396" t="s">
+        <v>10</v>
+      </c>
+      <c r="H396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C397">
+        <v>70</v>
+      </c>
+      <c r="D397" t="s">
+        <v>24</v>
+      </c>
+      <c r="E397" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G397" t="s">
+        <v>10</v>
+      </c>
+      <c r="H397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C398">
+        <v>30</v>
+      </c>
+      <c r="D398" t="s">
+        <v>26</v>
+      </c>
+      <c r="E398" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G398" t="s">
+        <v>10</v>
+      </c>
+      <c r="H398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C399">
+        <v>20</v>
+      </c>
+      <c r="D399" t="s">
+        <v>24</v>
+      </c>
+      <c r="E399" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G399" t="s">
+        <v>10</v>
+      </c>
+      <c r="H399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C400">
+        <v>70</v>
+      </c>
+      <c r="D400" t="s">
+        <v>26</v>
+      </c>
+      <c r="E400" t="s">
+        <v>25</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G400" t="s">
+        <v>10</v>
+      </c>
+      <c r="H400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C401">
+        <v>80</v>
+      </c>
+      <c r="D401" t="s">
+        <v>26</v>
+      </c>
+      <c r="E401" t="s">
+        <v>25</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G401" t="s">
+        <v>10</v>
+      </c>
+      <c r="H401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C402">
+        <v>70</v>
+      </c>
+      <c r="D402" t="s">
+        <v>26</v>
+      </c>
+      <c r="E402" t="s">
+        <v>46</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G402" t="s">
+        <v>10</v>
+      </c>
+      <c r="H402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C403">
+        <v>80</v>
+      </c>
+      <c r="D403" t="s">
+        <v>26</v>
+      </c>
+      <c r="E403" t="s">
+        <v>25</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G403" t="s">
+        <v>10</v>
+      </c>
+      <c r="H403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C404">
+        <v>70</v>
+      </c>
+      <c r="D404" t="s">
+        <v>26</v>
+      </c>
+      <c r="E404" t="s">
+        <v>25</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G404" t="s">
+        <v>10</v>
+      </c>
+      <c r="H404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C405">
+        <v>40</v>
+      </c>
+      <c r="D405" t="s">
+        <v>26</v>
+      </c>
+      <c r="E405" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G405" t="s">
+        <v>10</v>
+      </c>
+      <c r="H405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C406">
+        <v>20</v>
+      </c>
+      <c r="D406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E406" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G406" t="s">
+        <v>10</v>
+      </c>
+      <c r="H406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C407">
+        <v>20</v>
+      </c>
+      <c r="D407" t="s">
+        <v>26</v>
+      </c>
+      <c r="E407" t="s">
+        <v>25</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G407" t="s">
+        <v>10</v>
+      </c>
+      <c r="H407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C408">
+        <v>40</v>
+      </c>
+      <c r="D408" t="s">
+        <v>26</v>
+      </c>
+      <c r="E408" t="s">
+        <v>30</v>
+      </c>
+      <c r="F408" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G408" t="s">
+        <v>10</v>
+      </c>
+      <c r="H408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C409">
+        <v>70</v>
+      </c>
+      <c r="D409" t="s">
+        <v>24</v>
+      </c>
+      <c r="E409" t="s">
+        <v>49</v>
+      </c>
+      <c r="F409" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G409" t="s">
+        <v>10</v>
+      </c>
+      <c r="H409" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10860,26 +11384,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>62</v>
@@ -10909,7 +11433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43856</v>
       </c>
@@ -10941,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43857</v>
       </c>
@@ -10973,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43858</v>
       </c>
@@ -11005,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43859</v>
       </c>
@@ -11037,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43860</v>
       </c>
@@ -11069,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43861</v>
       </c>
@@ -11101,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43862</v>
       </c>
@@ -11133,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>43863</v>
       </c>
@@ -11165,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43864</v>
       </c>
@@ -11197,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43865</v>
       </c>
@@ -11229,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43866</v>
       </c>
@@ -11261,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43867</v>
       </c>
@@ -11293,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43868</v>
       </c>
@@ -11325,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43869</v>
       </c>
@@ -11357,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43870</v>
       </c>
@@ -11389,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43871</v>
       </c>
@@ -11421,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>43872</v>
       </c>
@@ -11453,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>43873</v>
       </c>
@@ -11485,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>43874</v>
       </c>
@@ -11517,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>43875</v>
       </c>
@@ -11549,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>43876</v>
       </c>
@@ -11581,7 +12105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>43877</v>
       </c>
@@ -11613,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>43878</v>
       </c>
@@ -11645,7 +12169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>43879</v>
       </c>
@@ -11677,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>43880</v>
       </c>
@@ -11709,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>43881</v>
       </c>
@@ -11741,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>43882</v>
       </c>
@@ -11773,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>43883</v>
       </c>
@@ -11805,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>43884</v>
       </c>
@@ -11837,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>43885</v>
       </c>
@@ -11869,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>43886</v>
       </c>
@@ -11901,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>43887</v>
       </c>
@@ -11933,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>43888</v>
       </c>
@@ -11965,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>43889</v>
       </c>
@@ -11997,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>43890</v>
       </c>
@@ -12029,7 +12553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>43891</v>
       </c>
@@ -12061,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>43892</v>
       </c>
@@ -12093,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>43893</v>
       </c>
@@ -12125,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>43894</v>
       </c>
@@ -12157,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>43895</v>
       </c>
@@ -12189,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>43896</v>
       </c>
@@ -12221,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43897</v>
       </c>
@@ -12253,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43898</v>
       </c>
@@ -12285,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43899</v>
       </c>
@@ -12317,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43900</v>
       </c>
@@ -12349,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>43901</v>
       </c>
@@ -12381,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>43902</v>
       </c>
@@ -12413,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43903</v>
       </c>
@@ -12445,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>43904</v>
       </c>
@@ -12477,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>43905</v>
       </c>
@@ -12509,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43906</v>
       </c>
@@ -12541,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43907</v>
       </c>
@@ -12573,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>43908</v>
       </c>
@@ -12605,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>43909</v>
       </c>
@@ -12637,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43910</v>
       </c>
@@ -12669,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>43911</v>
       </c>
@@ -12701,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>43912</v>
       </c>
@@ -12733,7 +13257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43913</v>
       </c>
@@ -12765,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>43914</v>
       </c>
@@ -12797,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>43915</v>
       </c>
@@ -12829,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>43916</v>
       </c>
@@ -12861,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43917</v>
       </c>
@@ -12893,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>43918</v>
       </c>
@@ -12925,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43919</v>
       </c>
@@ -12957,7 +13481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43920</v>
       </c>
@@ -12989,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>43921</v>
       </c>
@@ -13021,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>43922</v>
       </c>
@@ -13053,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>43923</v>
       </c>
@@ -13085,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43924</v>
       </c>
@@ -13117,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>43925</v>
       </c>
@@ -13131,7 +13655,7 @@
         <v>387</v>
       </c>
       <c r="E72">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -13149,23 +13673,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B73">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>408</v>
+      </c>
+      <c r="E73">
+        <v>303</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>101</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>101</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B73">
-        <v>4728</v>
-      </c>
-      <c r="C73">
-        <v>387</v>
-      </c>
-      <c r="F73">
-        <v>99</v>
-      </c>
-      <c r="H73">
-        <v>99</v>
-      </c>
-      <c r="J73">
+      <c r="B74">
+        <v>4868</v>
+      </c>
+      <c r="C74">
+        <v>408</v>
+      </c>
+      <c r="F74">
+        <v>101</v>
+      </c>
+      <c r="H74">
+        <v>101</v>
+      </c>
+      <c r="J74">
         <v>4</v>
       </c>
     </row>

--- a/patients_and_inspections.xlsx
+++ b/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="72">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -342,7 +342,20 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -620,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -749,10 +762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H409"/>
+  <dimension ref="A1:H410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I412" sqref="I412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11373,6 +11386,32 @@
         <v>10</v>
       </c>
       <c r="H409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C410">
+        <v>30</v>
+      </c>
+      <c r="D410" t="s">
+        <v>26</v>
+      </c>
+      <c r="E410" t="s">
+        <v>29</v>
+      </c>
+      <c r="F410" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G410" t="s">
+        <v>10</v>
+      </c>
+      <c r="H410" t="s">
         <v>5</v>
       </c>
     </row>

--- a/patients_and_inspections.xlsx
+++ b/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="111">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -252,6 +252,222 @@
     <t>女性</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>高槻市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>守口市</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入院調整中</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チョウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大阪市</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>和泉市</t>
+    <rPh sb="0" eb="3">
+      <t>イズミシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>岸和田市</t>
+    <rPh sb="0" eb="4">
+      <t>キシワダシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>吹田市</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>東大阪市</t>
+    <rPh sb="0" eb="4">
+      <t>ヒガシオオサカシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>八尾市</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入院中</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウインチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>吹田市</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>茨木市</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>四條畷市</t>
+    <rPh sb="0" eb="4">
+      <t>シジョウナワテシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大東市</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <rPh sb="0" eb="2">
+      <t>タイイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>死亡退院</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入院調整中</t>
+    <rPh sb="0" eb="5">
+      <t>ニュウインチョウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入院中</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入院中</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入院中</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入院調整中</t>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +508,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,12 +567,3577 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="528">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -633,8 +4428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -657,7 +4452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -665,7 +4460,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -673,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -689,7 +4484,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -710,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -718,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -726,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -742,7 +4537,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -750,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -762,10 +4557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H410"/>
+  <dimension ref="A1:H430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I412" sqref="I412"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -775,7 +4570,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -827,10 +4622,10 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -853,10 +4648,10 @@
         <v>43881</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -905,10 +4700,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -931,10 +4726,10 @@
         <v>43883</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -957,10 +4752,10 @@
         <v>43885</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -983,10 +4778,10 @@
         <v>43884</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1009,10 +4804,10 @@
         <v>43887</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1035,10 +4830,10 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1061,10 +4856,10 @@
         <v>43884</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1087,10 +4882,10 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1113,10 +4908,10 @@
         <v>43881</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1139,10 +4934,10 @@
         <v>43886</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1165,10 +4960,10 @@
         <v>43894</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1191,10 +4986,10 @@
         <v>43884</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1217,10 +5012,10 @@
         <v>43889</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1243,10 +5038,10 @@
         <v>43878</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1269,10 +5064,10 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1321,10 +5116,10 @@
         <v>43884</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1347,10 +5142,10 @@
         <v>43887</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -1373,10 +5168,10 @@
         <v>43883</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -1399,10 +5194,10 @@
         <v>43893</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -1425,10 +5220,10 @@
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -1451,10 +5246,10 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1477,10 +5272,10 @@
         <v>43886</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -1503,10 +5298,10 @@
         <v>43884</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -1529,10 +5324,10 @@
         <v>43887</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -1555,10 +5350,10 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -1581,10 +5376,10 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -1607,10 +5402,10 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -1633,10 +5428,10 @@
         <v>43882</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -1659,10 +5454,10 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -1685,10 +5480,10 @@
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -1711,10 +5506,10 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1737,10 +5532,10 @@
         <v>43886</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -1763,10 +5558,10 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -1789,10 +5584,10 @@
         <v>43886</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -1815,10 +5610,10 @@
         <v>43883</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -1841,10 +5636,10 @@
         <v>43883</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -1893,10 +5688,10 @@
         <v>43884</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -1919,10 +5714,10 @@
         <v>43890</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -1945,10 +5740,10 @@
         <v>43886</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -1971,10 +5766,10 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -1997,10 +5792,10 @@
         <v>43886</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -2049,10 +5844,10 @@
         <v>43881</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -2075,10 +5870,10 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -2101,10 +5896,10 @@
         <v>43891</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -2179,10 +5974,10 @@
         <v>43891</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -2205,10 +6000,10 @@
         <v>43890</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -2231,10 +6026,10 @@
         <v>43896</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -2257,10 +6052,10 @@
         <v>43895</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -2283,7 +6078,7 @@
         <v>43895</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -2309,10 +6104,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -2335,10 +6130,10 @@
         <v>43893</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -2361,10 +6156,10 @@
         <v>43895</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -2387,10 +6182,10 @@
         <v>43895</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -2413,10 +6208,10 @@
         <v>43892</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -2439,10 +6234,10 @@
         <v>43893</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -2465,10 +6260,10 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -2494,7 +6289,7 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -2517,10 +6312,10 @@
         <v>43896</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -2543,10 +6338,10 @@
         <v>43889</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -2569,10 +6364,10 @@
         <v>43888</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -2595,10 +6390,10 @@
         <v>43893</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -2621,10 +6416,10 @@
         <v>43894</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -2647,10 +6442,10 @@
         <v>43894</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -2699,10 +6494,10 @@
         <v>43891</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -2725,10 +6520,10 @@
         <v>43891</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H76" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -2751,10 +6546,10 @@
         <v>43894</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -2777,10 +6572,10 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -2803,10 +6598,10 @@
         <v>43897</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -2829,10 +6624,10 @@
         <v>43892</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -2855,10 +6650,10 @@
         <v>43893</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -2907,10 +6702,10 @@
         <v>43893</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -2933,7 +6728,7 @@
         <v>43896</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -2959,10 +6754,10 @@
         <v>43901</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -2985,7 +6780,7 @@
         <v>43895</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -3011,10 +6806,10 @@
         <v>43889</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -3037,10 +6832,10 @@
         <v>43894</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -3063,10 +6858,10 @@
         <v>43895</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -3089,10 +6884,10 @@
         <v>43898</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -3115,10 +6910,10 @@
         <v>43890</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -3141,10 +6936,10 @@
         <v>43894</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -3167,10 +6962,10 @@
         <v>43900</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -3193,10 +6988,10 @@
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
@@ -3219,10 +7014,10 @@
         <v>43901</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
@@ -3245,10 +7040,10 @@
         <v>43898</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -3271,7 +7066,7 @@
         <v>43899</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -3297,10 +7092,10 @@
         <v>43903</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
@@ -3323,10 +7118,10 @@
         <v>43891</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
@@ -3349,7 +7144,7 @@
         <v>43896</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -3375,10 +7170,10 @@
         <v>43902</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
@@ -3401,10 +7196,10 @@
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
@@ -3427,10 +7222,10 @@
         <v>43894</v>
       </c>
       <c r="G103" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -3453,10 +7248,10 @@
         <v>43899</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
@@ -3479,10 +7274,10 @@
         <v>43904</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H105" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -3505,10 +7300,10 @@
         <v>43902</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H106" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -3531,10 +7326,10 @@
         <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
@@ -3557,10 +7352,10 @@
         <v>43903</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
@@ -3583,7 +7378,7 @@
         <v>43904</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -3609,7 +7404,7 @@
         <v>43901</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -3635,7 +7430,7 @@
         <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -3661,10 +7456,10 @@
         <v>43899</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H112" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
@@ -3687,7 +7482,7 @@
         <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -3713,7 +7508,7 @@
         <v>43905</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -3739,10 +7534,10 @@
         <v>43903</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H115" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
@@ -3765,10 +7560,10 @@
         <v>43896</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H116" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
@@ -3791,10 +7586,10 @@
         <v>43897</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H117" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
@@ -3817,10 +7612,10 @@
         <v>43902</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H118" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
@@ -3843,10 +7638,10 @@
         <v>43898</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H119" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
@@ -3869,7 +7664,7 @@
         <v>43898</v>
       </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -3895,10 +7690,10 @@
         <v>43898</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H121" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
@@ -3921,7 +7716,7 @@
         <v>43895</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -3947,7 +7742,7 @@
         <v>43899</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -3973,10 +7768,10 @@
         <v>43905</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H124" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
@@ -3999,7 +7794,7 @@
         <v>43906</v>
       </c>
       <c r="G125" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -4025,10 +7820,10 @@
         <v>43895</v>
       </c>
       <c r="G126" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
@@ -4051,10 +7846,10 @@
         <v>43898</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
@@ -4077,7 +7872,7 @@
         <v>43906</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -4285,10 +8080,10 @@
         <v>43897</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H136" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
@@ -4311,10 +8106,10 @@
         <v>43908</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
@@ -4340,7 +8135,7 @@
         <v>10</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
@@ -4366,7 +8161,7 @@
         <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
@@ -4389,10 +8184,10 @@
         <v>43906</v>
       </c>
       <c r="G140" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
@@ -4418,7 +8213,7 @@
         <v>10</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
@@ -4444,7 +8239,7 @@
         <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
@@ -4470,7 +8265,7 @@
         <v>10</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
@@ -4493,10 +8288,10 @@
         <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H144" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
@@ -4522,7 +8317,7 @@
         <v>10</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
@@ -4545,10 +8340,10 @@
         <v>43912</v>
       </c>
       <c r="G146" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
@@ -4574,7 +8369,7 @@
         <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
@@ -4600,7 +8395,7 @@
         <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
@@ -4623,10 +8418,10 @@
         <v>47</v>
       </c>
       <c r="G149" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
@@ -4649,10 +8444,10 @@
         <v>43913</v>
       </c>
       <c r="G150" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
@@ -4675,10 +8470,10 @@
         <v>43914</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
@@ -4701,10 +8496,10 @@
         <v>43910</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
@@ -4730,7 +8525,7 @@
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
@@ -4756,7 +8551,7 @@
         <v>10</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
@@ -4782,7 +8577,7 @@
         <v>10</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
@@ -4808,7 +8603,7 @@
         <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
@@ -4834,7 +8629,7 @@
         <v>10</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
@@ -4860,7 +8655,7 @@
         <v>10</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
@@ -4886,7 +8681,7 @@
         <v>10</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
@@ -4909,10 +8704,10 @@
         <v>43911</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
@@ -4935,10 +8730,10 @@
         <v>43912</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
@@ -4961,10 +8756,10 @@
         <v>43910</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
@@ -4990,7 +8785,7 @@
         <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
@@ -5016,7 +8811,7 @@
         <v>10</v>
       </c>
       <c r="H164" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
@@ -5042,7 +8837,7 @@
         <v>10</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
@@ -5068,7 +8863,7 @@
         <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
@@ -5094,7 +8889,7 @@
         <v>10</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
@@ -5120,7 +8915,7 @@
         <v>10</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
@@ -5146,7 +8941,7 @@
         <v>10</v>
       </c>
       <c r="H169" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
@@ -5169,10 +8964,10 @@
         <v>43911</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="H170" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -5198,7 +8993,7 @@
         <v>10</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
@@ -5224,7 +9019,7 @@
         <v>10</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
@@ -5250,7 +9045,7 @@
         <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
@@ -5299,10 +9094,10 @@
         <v>43915</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H175" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
@@ -5328,7 +9123,7 @@
         <v>10</v>
       </c>
       <c r="H176" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
@@ -5351,10 +9146,10 @@
         <v>43902</v>
       </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="H177" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
@@ -5380,7 +9175,7 @@
         <v>10</v>
       </c>
       <c r="H178" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
@@ -5406,7 +9201,7 @@
         <v>10</v>
       </c>
       <c r="H179" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
@@ -5432,7 +9227,7 @@
         <v>10</v>
       </c>
       <c r="H180" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
@@ -5458,7 +9253,7 @@
         <v>10</v>
       </c>
       <c r="H181" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
@@ -5481,10 +9276,10 @@
         <v>43914</v>
       </c>
       <c r="G182" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="H182" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
@@ -5510,7 +9305,7 @@
         <v>10</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
@@ -5536,7 +9331,7 @@
         <v>10</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
@@ -5562,7 +9357,7 @@
         <v>10</v>
       </c>
       <c r="H185" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
@@ -5588,7 +9383,7 @@
         <v>10</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
@@ -5614,7 +9409,7 @@
         <v>10</v>
       </c>
       <c r="H187" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
@@ -5637,10 +9432,10 @@
         <v>43901</v>
       </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -5666,7 +9461,7 @@
         <v>10</v>
       </c>
       <c r="H189" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
@@ -5689,10 +9484,10 @@
         <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H190" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
@@ -5718,7 +9513,7 @@
         <v>10</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
@@ -5744,7 +9539,7 @@
         <v>10</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
@@ -5767,10 +9562,10 @@
         <v>43907</v>
       </c>
       <c r="G193" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H193" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
@@ -5796,7 +9591,7 @@
         <v>10</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
@@ -5819,10 +9614,10 @@
         <v>14</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
@@ -5848,7 +9643,7 @@
         <v>10</v>
       </c>
       <c r="H196" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.4">
@@ -5874,7 +9669,7 @@
         <v>10</v>
       </c>
       <c r="H197" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
@@ -5900,7 +9695,7 @@
         <v>10</v>
       </c>
       <c r="H198" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
@@ -5926,7 +9721,7 @@
         <v>10</v>
       </c>
       <c r="H199" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
@@ -5949,10 +9744,10 @@
         <v>43909</v>
       </c>
       <c r="G200" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H200" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
@@ -5978,7 +9773,7 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
@@ -6004,7 +9799,7 @@
         <v>10</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
@@ -6030,7 +9825,7 @@
         <v>10</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
@@ -6056,7 +9851,7 @@
         <v>10</v>
       </c>
       <c r="H204" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
@@ -6079,10 +9874,10 @@
         <v>43913</v>
       </c>
       <c r="G205" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="H205" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
@@ -6108,7 +9903,7 @@
         <v>10</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.4">
@@ -6131,10 +9926,10 @@
         <v>43911</v>
       </c>
       <c r="G207" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H207" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.4">
@@ -6160,7 +9955,7 @@
         <v>10</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.4">
@@ -6186,7 +9981,7 @@
         <v>10</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.4">
@@ -6212,7 +10007,7 @@
         <v>10</v>
       </c>
       <c r="H210" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.4">
@@ -6238,7 +10033,7 @@
         <v>10</v>
       </c>
       <c r="H211" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.4">
@@ -6264,7 +10059,7 @@
         <v>10</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
@@ -6290,7 +10085,7 @@
         <v>10</v>
       </c>
       <c r="H213" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.4">
@@ -6316,7 +10111,7 @@
         <v>10</v>
       </c>
       <c r="H214" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.4">
@@ -6342,7 +10137,7 @@
         <v>10</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.4">
@@ -6368,7 +10163,7 @@
         <v>10</v>
       </c>
       <c r="H216" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.4">
@@ -6394,7 +10189,7 @@
         <v>10</v>
       </c>
       <c r="H217" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.4">
@@ -6417,10 +10212,10 @@
         <v>57</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H218" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.4">
@@ -6443,10 +10238,10 @@
         <v>43915</v>
       </c>
       <c r="G219" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="H219" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.4">
@@ -6472,7 +10267,7 @@
         <v>10</v>
       </c>
       <c r="H220" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.4">
@@ -6498,7 +10293,7 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.4">
@@ -6524,7 +10319,7 @@
         <v>10</v>
       </c>
       <c r="H222" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
@@ -6550,7 +10345,7 @@
         <v>10</v>
       </c>
       <c r="H223" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.4">
@@ -6576,7 +10371,7 @@
         <v>10</v>
       </c>
       <c r="H224" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6602,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="H225" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.4">
@@ -6628,7 +10423,7 @@
         <v>10</v>
       </c>
       <c r="H226" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.4">
@@ -6654,7 +10449,7 @@
         <v>10</v>
       </c>
       <c r="H227" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -6677,10 +10472,10 @@
         <v>43912</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H228" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.4">
@@ -6706,7 +10501,7 @@
         <v>10</v>
       </c>
       <c r="H229" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.4">
@@ -6732,7 +10527,7 @@
         <v>10</v>
       </c>
       <c r="H230" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.4">
@@ -6758,7 +10553,7 @@
         <v>10</v>
       </c>
       <c r="H231" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.4">
@@ -6784,7 +10579,7 @@
         <v>10</v>
       </c>
       <c r="H232" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.4">
@@ -6810,7 +10605,7 @@
         <v>10</v>
       </c>
       <c r="H233" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.4">
@@ -6836,7 +10631,7 @@
         <v>10</v>
       </c>
       <c r="H234" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.4">
@@ -6862,7 +10657,7 @@
         <v>10</v>
       </c>
       <c r="H235" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.4">
@@ -6888,7 +10683,7 @@
         <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.4">
@@ -6914,7 +10709,7 @@
         <v>10</v>
       </c>
       <c r="H237" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.4">
@@ -6940,7 +10735,7 @@
         <v>10</v>
       </c>
       <c r="H238" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.4">
@@ -6966,7 +10761,7 @@
         <v>10</v>
       </c>
       <c r="H239" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
@@ -6992,7 +10787,7 @@
         <v>10</v>
       </c>
       <c r="H240" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.4">
@@ -7018,7 +10813,7 @@
         <v>10</v>
       </c>
       <c r="H241" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.4">
@@ -7044,7 +10839,7 @@
         <v>10</v>
       </c>
       <c r="H242" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7070,7 +10865,7 @@
         <v>10</v>
       </c>
       <c r="H243" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
@@ -7096,7 +10891,7 @@
         <v>10</v>
       </c>
       <c r="H244" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.4">
@@ -7122,7 +10917,7 @@
         <v>10</v>
       </c>
       <c r="H245" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.4">
@@ -7148,7 +10943,7 @@
         <v>10</v>
       </c>
       <c r="H246" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.4">
@@ -7171,10 +10966,10 @@
         <v>43906</v>
       </c>
       <c r="G247" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H247" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.4">
@@ -7197,10 +10992,10 @@
         <v>43916</v>
       </c>
       <c r="G248" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H248" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.4">
@@ -7226,7 +11021,7 @@
         <v>10</v>
       </c>
       <c r="H249" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.4">
@@ -7252,7 +11047,7 @@
         <v>10</v>
       </c>
       <c r="H250" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.4">
@@ -7275,10 +11070,10 @@
         <v>57</v>
       </c>
       <c r="G251" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H251" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.4">
@@ -7301,10 +11096,10 @@
         <v>57</v>
       </c>
       <c r="G252" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H252" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
@@ -7327,10 +11122,10 @@
         <v>57</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H253" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.4">
@@ -7353,10 +11148,10 @@
         <v>57</v>
       </c>
       <c r="G254" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H254" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -7379,10 +11174,10 @@
         <v>57</v>
       </c>
       <c r="G255" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H255" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7405,10 +11200,10 @@
         <v>57</v>
       </c>
       <c r="G256" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H256" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
@@ -7431,10 +11226,10 @@
         <v>57</v>
       </c>
       <c r="G257" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H257" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.4">
@@ -7457,10 +11252,10 @@
         <v>57</v>
       </c>
       <c r="G258" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H258" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7483,10 +11278,10 @@
         <v>57</v>
       </c>
       <c r="G259" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H259" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.4">
@@ -7509,10 +11304,10 @@
         <v>57</v>
       </c>
       <c r="G260" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H260" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7535,10 +11330,10 @@
         <v>57</v>
       </c>
       <c r="G261" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H261" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7561,10 +11356,10 @@
         <v>57</v>
       </c>
       <c r="G262" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H262" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7587,10 +11382,10 @@
         <v>57</v>
       </c>
       <c r="G263" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H263" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7613,10 +11408,10 @@
         <v>57</v>
       </c>
       <c r="G264" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H264" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7639,10 +11434,10 @@
         <v>57</v>
       </c>
       <c r="G265" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H265" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7665,10 +11460,10 @@
         <v>57</v>
       </c>
       <c r="G266" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H266" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7691,10 +11486,10 @@
         <v>57</v>
       </c>
       <c r="G267" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H267" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7720,7 +11515,7 @@
         <v>10</v>
       </c>
       <c r="H268" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.4">
@@ -7746,7 +11541,7 @@
         <v>10</v>
       </c>
       <c r="H269" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.4">
@@ -7772,7 +11567,7 @@
         <v>10</v>
       </c>
       <c r="H270" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.4">
@@ -7798,7 +11593,7 @@
         <v>10</v>
       </c>
       <c r="H271" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.4">
@@ -7824,7 +11619,7 @@
         <v>10</v>
       </c>
       <c r="H272" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.4">
@@ -7850,7 +11645,7 @@
         <v>10</v>
       </c>
       <c r="H273" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.4">
@@ -7876,7 +11671,7 @@
         <v>10</v>
       </c>
       <c r="H274" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.4">
@@ -7902,7 +11697,7 @@
         <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -7928,7 +11723,7 @@
         <v>10</v>
       </c>
       <c r="H276" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.4">
@@ -7954,7 +11749,7 @@
         <v>10</v>
       </c>
       <c r="H277" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.4">
@@ -7980,7 +11775,7 @@
         <v>10</v>
       </c>
       <c r="H278" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.4">
@@ -8006,7 +11801,7 @@
         <v>10</v>
       </c>
       <c r="H279" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.4">
@@ -8032,7 +11827,7 @@
         <v>10</v>
       </c>
       <c r="H280" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.4">
@@ -8058,7 +11853,7 @@
         <v>10</v>
       </c>
       <c r="H281" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.4">
@@ -8084,7 +11879,7 @@
         <v>10</v>
       </c>
       <c r="H282" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
@@ -8110,7 +11905,7 @@
         <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.4">
@@ -8136,7 +11931,7 @@
         <v>10</v>
       </c>
       <c r="H284" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.4">
@@ -8162,7 +11957,7 @@
         <v>10</v>
       </c>
       <c r="H285" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.4">
@@ -8188,7 +11983,7 @@
         <v>10</v>
       </c>
       <c r="H286" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.4">
@@ -8214,7 +12009,7 @@
         <v>10</v>
       </c>
       <c r="H287" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.4">
@@ -8240,7 +12035,7 @@
         <v>10</v>
       </c>
       <c r="H288" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.4">
@@ -8266,7 +12061,7 @@
         <v>10</v>
       </c>
       <c r="H289" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.4">
@@ -8292,7 +12087,7 @@
         <v>10</v>
       </c>
       <c r="H290" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.4">
@@ -8318,7 +12113,7 @@
         <v>10</v>
       </c>
       <c r="H291" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.4">
@@ -8344,7 +12139,7 @@
         <v>10</v>
       </c>
       <c r="H292" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.4">
@@ -8370,7 +12165,7 @@
         <v>10</v>
       </c>
       <c r="H293" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.4">
@@ -8396,7 +12191,7 @@
         <v>10</v>
       </c>
       <c r="H294" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.4">
@@ -8422,7 +12217,7 @@
         <v>10</v>
       </c>
       <c r="H295" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.4">
@@ -8448,7 +12243,7 @@
         <v>10</v>
       </c>
       <c r="H296" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.4">
@@ -8471,10 +12266,10 @@
         <v>57</v>
       </c>
       <c r="G297" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="H297" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.4">
@@ -8500,7 +12295,7 @@
         <v>10</v>
       </c>
       <c r="H298" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.4">
@@ -8526,7 +12321,7 @@
         <v>10</v>
       </c>
       <c r="H299" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.4">
@@ -8552,7 +12347,7 @@
         <v>10</v>
       </c>
       <c r="H300" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
@@ -8578,7 +12373,7 @@
         <v>10</v>
       </c>
       <c r="H301" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.4">
@@ -8604,7 +12399,7 @@
         <v>10</v>
       </c>
       <c r="H302" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.4">
@@ -8630,7 +12425,7 @@
         <v>10</v>
       </c>
       <c r="H303" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8656,7 +12451,7 @@
         <v>10</v>
       </c>
       <c r="H304" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -8682,7 +12477,7 @@
         <v>10</v>
       </c>
       <c r="H305" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.4">
@@ -8708,7 +12503,7 @@
         <v>10</v>
       </c>
       <c r="H306" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.4">
@@ -8731,10 +12526,10 @@
         <v>57</v>
       </c>
       <c r="G307" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="H307" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -8760,7 +12555,7 @@
         <v>10</v>
       </c>
       <c r="H308" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.4">
@@ -8783,10 +12578,10 @@
         <v>43914</v>
       </c>
       <c r="G309" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H309" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.4">
@@ -8812,7 +12607,7 @@
         <v>10</v>
       </c>
       <c r="H310" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.4">
@@ -8838,7 +12633,7 @@
         <v>10</v>
       </c>
       <c r="H311" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.4">
@@ -8864,7 +12659,7 @@
         <v>10</v>
       </c>
       <c r="H312" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.4">
@@ -8890,7 +12685,7 @@
         <v>10</v>
       </c>
       <c r="H313" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.4">
@@ -8916,7 +12711,7 @@
         <v>10</v>
       </c>
       <c r="H314" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -8942,7 +12737,7 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -8968,7 +12763,7 @@
         <v>10</v>
       </c>
       <c r="H316" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.4">
@@ -8994,7 +12789,7 @@
         <v>10</v>
       </c>
       <c r="H317" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9020,7 +12815,7 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9046,7 +12841,7 @@
         <v>10</v>
       </c>
       <c r="H319" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.4">
@@ -9072,7 +12867,7 @@
         <v>10</v>
       </c>
       <c r="H320" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.4">
@@ -9098,7 +12893,7 @@
         <v>10</v>
       </c>
       <c r="H321" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9124,7 +12919,7 @@
         <v>10</v>
       </c>
       <c r="H322" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9150,7 +12945,7 @@
         <v>10</v>
       </c>
       <c r="H323" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9176,7 +12971,7 @@
         <v>10</v>
       </c>
       <c r="H324" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.4">
@@ -9202,7 +12997,7 @@
         <v>10</v>
       </c>
       <c r="H325" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9225,10 +13020,10 @@
         <v>43913</v>
       </c>
       <c r="G326" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="H326" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.4">
@@ -9251,10 +13046,10 @@
         <v>47</v>
       </c>
       <c r="G327" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="H327" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.4">
@@ -9277,10 +13072,10 @@
         <v>47</v>
       </c>
       <c r="G328" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="H328" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9306,7 +13101,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9332,7 +13127,7 @@
         <v>10</v>
       </c>
       <c r="H330" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9358,7 +13153,7 @@
         <v>10</v>
       </c>
       <c r="H331" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9384,7 +13179,7 @@
         <v>10</v>
       </c>
       <c r="H332" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.4">
@@ -9410,7 +13205,7 @@
         <v>10</v>
       </c>
       <c r="H333" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.4">
@@ -9436,7 +13231,7 @@
         <v>10</v>
       </c>
       <c r="H334" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.4">
@@ -9462,7 +13257,7 @@
         <v>10</v>
       </c>
       <c r="H335" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.4">
@@ -9488,7 +13283,7 @@
         <v>10</v>
       </c>
       <c r="H336" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.4">
@@ -9514,7 +13309,7 @@
         <v>10</v>
       </c>
       <c r="H337" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
@@ -9540,7 +13335,7 @@
         <v>10</v>
       </c>
       <c r="H338" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.4">
@@ -9566,7 +13361,7 @@
         <v>10</v>
       </c>
       <c r="H339" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -9592,7 +13387,7 @@
         <v>10</v>
       </c>
       <c r="H340" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.4">
@@ -9618,7 +13413,7 @@
         <v>10</v>
       </c>
       <c r="H341" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.4">
@@ -9644,7 +13439,7 @@
         <v>10</v>
       </c>
       <c r="H342" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.4">
@@ -9670,7 +13465,7 @@
         <v>10</v>
       </c>
       <c r="H343" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.4">
@@ -9696,7 +13491,7 @@
         <v>10</v>
       </c>
       <c r="H344" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.4">
@@ -9722,7 +13517,7 @@
         <v>10</v>
       </c>
       <c r="H345" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.4">
@@ -9748,7 +13543,7 @@
         <v>10</v>
       </c>
       <c r="H346" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.4">
@@ -9774,7 +13569,7 @@
         <v>10</v>
       </c>
       <c r="H347" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.4">
@@ -9800,7 +13595,7 @@
         <v>10</v>
       </c>
       <c r="H348" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.4">
@@ -9826,7 +13621,7 @@
         <v>10</v>
       </c>
       <c r="H349" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.4">
@@ -9852,7 +13647,7 @@
         <v>10</v>
       </c>
       <c r="H350" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.4">
@@ -9878,7 +13673,7 @@
         <v>10</v>
       </c>
       <c r="H351" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -9904,7 +13699,7 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -9930,7 +13725,7 @@
         <v>10</v>
       </c>
       <c r="H353" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.4">
@@ -9956,7 +13751,7 @@
         <v>10</v>
       </c>
       <c r="H354" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.4">
@@ -9982,7 +13777,7 @@
         <v>10</v>
       </c>
       <c r="H355" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.4">
@@ -10008,7 +13803,7 @@
         <v>10</v>
       </c>
       <c r="H356" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.4">
@@ -10034,7 +13829,7 @@
         <v>10</v>
       </c>
       <c r="H357" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.4">
@@ -10060,7 +13855,7 @@
         <v>10</v>
       </c>
       <c r="H358" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.4">
@@ -10086,7 +13881,7 @@
         <v>10</v>
       </c>
       <c r="H359" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.4">
@@ -10112,7 +13907,7 @@
         <v>10</v>
       </c>
       <c r="H360" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.4">
@@ -10138,7 +13933,7 @@
         <v>10</v>
       </c>
       <c r="H361" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10164,7 +13959,7 @@
         <v>10</v>
       </c>
       <c r="H362" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.4">
@@ -10190,7 +13985,7 @@
         <v>10</v>
       </c>
       <c r="H363" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.4">
@@ -10216,7 +14011,7 @@
         <v>10</v>
       </c>
       <c r="H364" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.4">
@@ -10239,10 +14034,10 @@
         <v>43924</v>
       </c>
       <c r="G365" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="H365" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.4">
@@ -10268,7 +14063,7 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10294,7 +14089,7 @@
         <v>10</v>
       </c>
       <c r="H367" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10320,7 +14115,7 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10346,7 +14141,7 @@
         <v>10</v>
       </c>
       <c r="H369" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10372,7 +14167,7 @@
         <v>10</v>
       </c>
       <c r="H370" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.4">
@@ -10398,7 +14193,7 @@
         <v>10</v>
       </c>
       <c r="H371" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.4">
@@ -10424,7 +14219,7 @@
         <v>10</v>
       </c>
       <c r="H372" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.4">
@@ -10450,7 +14245,7 @@
         <v>10</v>
       </c>
       <c r="H373" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.4">
@@ -10467,7 +14262,7 @@
         <v>26</v>
       </c>
       <c r="E374" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F374" s="1">
         <v>43922</v>
@@ -10476,7 +14271,7 @@
         <v>10</v>
       </c>
       <c r="H374" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.4">
@@ -10502,7 +14297,7 @@
         <v>10</v>
       </c>
       <c r="H375" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.4">
@@ -10528,7 +14323,7 @@
         <v>10</v>
       </c>
       <c r="H376" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -10554,7 +14349,7 @@
         <v>10</v>
       </c>
       <c r="H377" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.4">
@@ -10580,7 +14375,7 @@
         <v>10</v>
       </c>
       <c r="H378" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.4">
@@ -10606,7 +14401,7 @@
         <v>10</v>
       </c>
       <c r="H379" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
@@ -10629,10 +14424,10 @@
         <v>47</v>
       </c>
       <c r="G380" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="H380" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.4">
@@ -10658,7 +14453,7 @@
         <v>10</v>
       </c>
       <c r="H381" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.4">
@@ -10684,7 +14479,7 @@
         <v>10</v>
       </c>
       <c r="H382" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.4">
@@ -10710,7 +14505,7 @@
         <v>10</v>
       </c>
       <c r="H383" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.4">
@@ -10736,7 +14531,7 @@
         <v>10</v>
       </c>
       <c r="H384" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.4">
@@ -10762,7 +14557,7 @@
         <v>10</v>
       </c>
       <c r="H385" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.4">
@@ -10788,7 +14583,7 @@
         <v>10</v>
       </c>
       <c r="H386" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.4">
@@ -10814,7 +14609,7 @@
         <v>10</v>
       </c>
       <c r="H387" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.4">
@@ -10840,7 +14635,7 @@
         <v>10</v>
       </c>
       <c r="H388" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.4">
@@ -10866,7 +14661,7 @@
         <v>10</v>
       </c>
       <c r="H389" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.4">
@@ -10892,7 +14687,7 @@
         <v>10</v>
       </c>
       <c r="H390" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.4">
@@ -10918,7 +14713,7 @@
         <v>10</v>
       </c>
       <c r="H391" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.4">
@@ -10944,7 +14739,7 @@
         <v>10</v>
       </c>
       <c r="H392" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.4">
@@ -10970,7 +14765,7 @@
         <v>10</v>
       </c>
       <c r="H393" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.4">
@@ -10996,7 +14791,7 @@
         <v>10</v>
       </c>
       <c r="H394" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.4">
@@ -11022,7 +14817,7 @@
         <v>10</v>
       </c>
       <c r="H395" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11048,7 +14843,7 @@
         <v>10</v>
       </c>
       <c r="H396" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
@@ -11074,7 +14869,7 @@
         <v>10</v>
       </c>
       <c r="H397" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.4">
@@ -11100,7 +14895,7 @@
         <v>10</v>
       </c>
       <c r="H398" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.4">
@@ -11126,7 +14921,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11152,7 +14947,7 @@
         <v>10</v>
       </c>
       <c r="H400" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.4">
@@ -11178,7 +14973,7 @@
         <v>10</v>
       </c>
       <c r="H401" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -11204,7 +14999,7 @@
         <v>10</v>
       </c>
       <c r="H402" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.4">
@@ -11230,7 +15025,7 @@
         <v>10</v>
       </c>
       <c r="H403" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.4">
@@ -11256,7 +15051,7 @@
         <v>10</v>
       </c>
       <c r="H404" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.4">
@@ -11282,7 +15077,7 @@
         <v>10</v>
       </c>
       <c r="H405" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11308,7 +15103,7 @@
         <v>10</v>
       </c>
       <c r="H406" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.4">
@@ -11334,7 +15129,7 @@
         <v>10</v>
       </c>
       <c r="H407" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11360,7 +15155,7 @@
         <v>10</v>
       </c>
       <c r="H408" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.4">
@@ -11386,7 +15181,7 @@
         <v>10</v>
       </c>
       <c r="H409" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11400,19 +15195,539 @@
         <v>30</v>
       </c>
       <c r="D410" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E410" t="s">
-        <v>29</v>
-      </c>
-      <c r="F410" s="1">
+        <v>74</v>
+      </c>
+      <c r="F410" s="6">
         <v>43921</v>
       </c>
       <c r="G410" t="s">
         <v>10</v>
       </c>
       <c r="H410" t="s">
-        <v>5</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C411">
+        <v>70</v>
+      </c>
+      <c r="D411" t="s">
+        <v>73</v>
+      </c>
+      <c r="E411" t="s">
+        <v>76</v>
+      </c>
+      <c r="F411" s="6">
+        <v>43919</v>
+      </c>
+      <c r="G411" t="s">
+        <v>10</v>
+      </c>
+      <c r="H411" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C412">
+        <v>20</v>
+      </c>
+      <c r="D412" t="s">
+        <v>73</v>
+      </c>
+      <c r="E412" t="s">
+        <v>76</v>
+      </c>
+      <c r="F412" s="6">
+        <v>43917</v>
+      </c>
+      <c r="G412" t="s">
+        <v>10</v>
+      </c>
+      <c r="H412" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C413">
+        <v>70</v>
+      </c>
+      <c r="D413" t="s">
+        <v>77</v>
+      </c>
+      <c r="E413" t="s">
+        <v>76</v>
+      </c>
+      <c r="F413" s="6">
+        <v>43918</v>
+      </c>
+      <c r="G413" t="s">
+        <v>10</v>
+      </c>
+      <c r="H413" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C414">
+        <v>20</v>
+      </c>
+      <c r="D414" t="s">
+        <v>77</v>
+      </c>
+      <c r="E414" t="s">
+        <v>76</v>
+      </c>
+      <c r="F414" s="6">
+        <v>43917</v>
+      </c>
+      <c r="G414" t="s">
+        <v>10</v>
+      </c>
+      <c r="H414" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C415">
+        <v>50</v>
+      </c>
+      <c r="D415" t="s">
+        <v>77</v>
+      </c>
+      <c r="E415" t="s">
+        <v>76</v>
+      </c>
+      <c r="F415" s="6">
+        <v>43917</v>
+      </c>
+      <c r="G415" t="s">
+        <v>10</v>
+      </c>
+      <c r="H415" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C416">
+        <v>70</v>
+      </c>
+      <c r="D416" t="s">
+        <v>77</v>
+      </c>
+      <c r="E416" t="s">
+        <v>78</v>
+      </c>
+      <c r="F416" s="6">
+        <v>43922</v>
+      </c>
+      <c r="G416" t="s">
+        <v>10</v>
+      </c>
+      <c r="H416" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C417">
+        <v>10</v>
+      </c>
+      <c r="D417" t="s">
+        <v>77</v>
+      </c>
+      <c r="E417" t="s">
+        <v>78</v>
+      </c>
+      <c r="F417" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G417" t="s">
+        <v>99</v>
+      </c>
+      <c r="H417" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C418">
+        <v>40</v>
+      </c>
+      <c r="D418" t="s">
+        <v>77</v>
+      </c>
+      <c r="E418" t="s">
+        <v>78</v>
+      </c>
+      <c r="F418" s="6">
+        <v>43924</v>
+      </c>
+      <c r="G418" t="s">
+        <v>10</v>
+      </c>
+      <c r="H418" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C419">
+        <v>70</v>
+      </c>
+      <c r="D419" t="s">
+        <v>73</v>
+      </c>
+      <c r="E419" t="s">
+        <v>80</v>
+      </c>
+      <c r="F419" s="6">
+        <v>43925</v>
+      </c>
+      <c r="G419" t="s">
+        <v>10</v>
+      </c>
+      <c r="H419" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C420">
+        <v>40</v>
+      </c>
+      <c r="D420" t="s">
+        <v>73</v>
+      </c>
+      <c r="E420" t="s">
+        <v>81</v>
+      </c>
+      <c r="F420" s="6">
+        <v>43922</v>
+      </c>
+      <c r="G420" t="s">
+        <v>10</v>
+      </c>
+      <c r="H420" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C421">
+        <v>30</v>
+      </c>
+      <c r="D421" t="s">
+        <v>82</v>
+      </c>
+      <c r="E421" t="s">
+        <v>83</v>
+      </c>
+      <c r="F421" s="6">
+        <v>43920</v>
+      </c>
+      <c r="G421" t="s">
+        <v>10</v>
+      </c>
+      <c r="H421" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C422">
+        <v>30</v>
+      </c>
+      <c r="D422" t="s">
+        <v>73</v>
+      </c>
+      <c r="E422" t="s">
+        <v>84</v>
+      </c>
+      <c r="F422" s="6">
+        <v>43922</v>
+      </c>
+      <c r="G422" t="s">
+        <v>96</v>
+      </c>
+      <c r="H422" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C423">
+        <v>50</v>
+      </c>
+      <c r="D423" t="s">
+        <v>73</v>
+      </c>
+      <c r="E423" t="s">
+        <v>86</v>
+      </c>
+      <c r="F423" s="6">
+        <v>43919</v>
+      </c>
+      <c r="G423" t="s">
+        <v>10</v>
+      </c>
+      <c r="H423" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C424">
+        <v>30</v>
+      </c>
+      <c r="D424" t="s">
+        <v>73</v>
+      </c>
+      <c r="E424" t="s">
+        <v>87</v>
+      </c>
+      <c r="F424" s="6">
+        <v>43921</v>
+      </c>
+      <c r="G424" t="s">
+        <v>10</v>
+      </c>
+      <c r="H424" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C425">
+        <v>50</v>
+      </c>
+      <c r="D425" t="s">
+        <v>73</v>
+      </c>
+      <c r="E425" t="s">
+        <v>86</v>
+      </c>
+      <c r="F425" s="6">
+        <v>43919</v>
+      </c>
+      <c r="G425" t="s">
+        <v>10</v>
+      </c>
+      <c r="H425" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C426">
+        <v>40</v>
+      </c>
+      <c r="D426" t="s">
+        <v>73</v>
+      </c>
+      <c r="E426" t="s">
+        <v>83</v>
+      </c>
+      <c r="F426" s="6">
+        <v>43927</v>
+      </c>
+      <c r="G426" t="s">
+        <v>10</v>
+      </c>
+      <c r="H426" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C427">
+        <v>40</v>
+      </c>
+      <c r="D427" t="s">
+        <v>77</v>
+      </c>
+      <c r="E427" t="s">
+        <v>88</v>
+      </c>
+      <c r="F427" s="6">
+        <v>43914</v>
+      </c>
+      <c r="G427" t="s">
+        <v>10</v>
+      </c>
+      <c r="H427" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C428">
+        <v>10</v>
+      </c>
+      <c r="D428" t="s">
+        <v>73</v>
+      </c>
+      <c r="E428" t="s">
+        <v>89</v>
+      </c>
+      <c r="F428" s="6">
+        <v>43920</v>
+      </c>
+      <c r="G428" t="s">
+        <v>10</v>
+      </c>
+      <c r="H428" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C429">
+        <v>30</v>
+      </c>
+      <c r="D429" t="s">
+        <v>73</v>
+      </c>
+      <c r="E429" t="s">
+        <v>89</v>
+      </c>
+      <c r="F429" s="6">
+        <v>43921</v>
+      </c>
+      <c r="G429" t="s">
+        <v>10</v>
+      </c>
+      <c r="H429" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C430">
+        <v>20</v>
+      </c>
+      <c r="D430" t="s">
+        <v>73</v>
+      </c>
+      <c r="E430" t="s">
+        <v>89</v>
+      </c>
+      <c r="F430" s="6">
+        <v>43922</v>
+      </c>
+      <c r="G430" t="s">
+        <v>10</v>
+      </c>
+      <c r="H430" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -11423,10 +15738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11436,7 +15751,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -13744,23 +18059,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B74">
+        <v>163</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>428</v>
+      </c>
+      <c r="E74">
+        <v>319</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>105</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>105</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B74">
-        <v>4868</v>
-      </c>
-      <c r="C74">
-        <v>408</v>
-      </c>
-      <c r="F74">
-        <v>101</v>
-      </c>
-      <c r="H74">
-        <v>101</v>
-      </c>
-      <c r="J74">
+      <c r="B75">
+        <v>5031</v>
+      </c>
+      <c r="C75">
+        <v>428</v>
+      </c>
+      <c r="F75">
+        <v>105</v>
+      </c>
+      <c r="H75">
+        <v>105</v>
+      </c>
+      <c r="J75">
         <v>4</v>
       </c>
     </row>
